--- a/estimation/notsensor/DenseModel/Dense_1st_torch/IWALQQ_1st_correction/angle/1_fold/89.xlsx
+++ b/estimation/notsensor/DenseModel/Dense_1st_torch/IWALQQ_1st_correction/angle/1_fold/89.xlsx
@@ -1,37 +1,63 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>X_True</t>
+  </si>
+  <si>
+    <t>Y_True</t>
+  </si>
+  <si>
+    <t>Z_True</t>
+  </si>
+  <si>
+    <t>X_Pred</t>
+  </si>
+  <si>
+    <t>Y_Pred</t>
+  </si>
+  <si>
+    <t>Z_Pred</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +72,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,5809 +388,5185 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G304"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>X_True</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Y_True</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Z_True</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>X_Pred</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Y_Pred</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Z_Pred</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
         <v>-18.81519474679086</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>4.595781726083142</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>-5.730442219285075</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>-12.18608487508246</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>-8.186195626934431</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>-8.419671894150273</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>-19.33610005257801</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>4.405209372337265</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>-6.111250574049925</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>-12.75329435843921</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>-8.187048845359314</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>-8.261398022463256</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>-19.94714618912031</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>4.181659143160346</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>-6.55795647502067</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>-13.41756262520235</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>-8.20247884497126</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>-8.127433486671109</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>-20.59163606932334</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>3.945873575090365</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>-7.029111458884472</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>-14.10429212304354</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>-8.179838735485347</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>-8.011044637146952</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>-21.26686878523372</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>3.698840790882476</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>-7.52274102412891</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>-14.77426173858233</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>-8.13333336112478</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>-7.997795833898788</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>-21.95174973207825</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>3.448278217175075</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>-8.023423938432403</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>-15.5984802357704</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>-8.051952890738951</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>-7.904769504245268</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>-22.64331811119509</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>3.195269057313742</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>-8.528995706915195</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>-16.27784643487512</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>-7.98395800921496</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>-7.95409001168933</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>-23.34800303770661</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>2.93746123005115</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>-9.044156340740825</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>-17.02023540674458</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>-7.933340204883194</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>-7.845778893280994</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>-24.0651631303276</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>2.675089383680977</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>-9.568436957466973</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>-17.67189640187037</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>-7.837024684408592</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>-7.693503730111138</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>-24.81668704945169</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>2.400145587615431</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>-10.11783928458594</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>-18.48633792367587</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>-7.715373132735665</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>-7.536050873717861</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>-25.60453729649111</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>2.111911863924155</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>-10.69379801075556</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>-19.20034242046526</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>-7.572768027608924</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>-7.220671752919191</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>-26.4411937857109</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>1.805822456394622</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>-11.30543659002031</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>-19.99806028776044</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>-7.472520247073232</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>-6.961290509917294</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>-27.33385153792418</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>1.479245078435832</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>-11.95801494967966</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>-20.83011757345578</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>-7.327326079629041</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>-6.495715248547429</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>-28.27519202512141</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>1.1348572015445</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>-12.64618287237231</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>-21.69582594950212</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>-7.171228940429204</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>-6.118091250519383</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>-29.26859891023212</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>0.7714209181746665</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>-13.37241398833192</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>-22.51328343499674</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>-6.988900719052317</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>-5.784868289264042</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>-30.28614143545546</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>0.3991546503636532</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>-14.11628948859781</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>-23.48290670409709</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>-6.786716531030327</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>-5.391562237016467</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>-31.32187064389877</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>0.02023481425614936</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>-14.87346038216971</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>-24.27033587844684</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>-6.598258805056425</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>-5.164720346120067</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>-32.34701803544321</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>-0.354813681454314</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>-15.62289542771143</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>-25.1139090735437</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>-6.342123048090103</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>-5.021526009364431</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>-33.33110157753211</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>-0.7148390350357466</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>-16.34231070425148</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>-25.92136768842937</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>-6.184610228998881</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>-4.912132342564754</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>-34.24959094175843</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>-1.050866865980301</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>-17.01377329020364</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>-26.61228602472766</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>-5.994496596586783</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>-4.895923911604481</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>-35.06092377124741</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>-1.347691654035341</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>-17.60689898220928</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>-27.14103970681126</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>-5.794215582672725</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22">
         <v>-4.954897969841059</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>-35.7508200440496</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>-1.600089076537589</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>-18.11124835566633</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>-27.62085869876798</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>-5.646363598416652</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23">
         <v>-5.06649977051543</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
+    <row r="24" spans="1:7">
+      <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>-36.29596139999261</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>-1.799528149574655</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>-18.50977449960191</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>-28.01918780095667</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>-5.509278733662168</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24">
         <v>-5.195564698909457</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
+    <row r="25" spans="1:7">
+      <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>-36.68549940758587</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>-1.942039992237397</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>-18.79454665711681</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>-28.2637435112669</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25">
         <v>-5.417144397653195</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25">
         <v>-5.353322125492346</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
+    <row r="26" spans="1:7">
+      <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>-36.92522281231032</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>-2.029742407587687</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>-18.96979669649547</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>-28.4631186364026</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26">
         <v>-5.382438288578104</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26">
         <v>-5.518134324619423</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
+    <row r="27" spans="1:7">
+      <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>-37.01327967418253</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>-2.061957866412982</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>-19.03417075512526</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
         <v>-28.57144426314009</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27">
         <v>-5.338755990326278</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27">
         <v>-5.628451633624556</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
+    <row r="28" spans="1:7">
+      <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>-36.96989873994561</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>-2.046087022608207</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>-19.00245707893231</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
         <v>-28.53282090832867</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28">
         <v>-5.315119354854796</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28">
         <v>-5.66963813067863</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
+    <row r="29" spans="1:7">
+      <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>-36.80239590183916</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>-1.984806383377968</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>-18.88000395839561</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
         <v>-28.43953434377066</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29">
         <v>-5.296240033377593</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29">
         <v>-5.727334318337048</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
+    <row r="30" spans="1:7">
+      <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>-36.53192344427765</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>-1.885854477363037</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>-18.6822747925973</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
         <v>-28.26912786686202</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30">
         <v>-5.286955691527017</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30">
         <v>-5.746376576278935</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
+    <row r="31" spans="1:7">
+      <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>-36.18181328746955</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>-1.75776724939281</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>-18.42632640558848</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
         <v>-28.0440627086808</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31">
         <v>-5.233024831767755</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31">
         <v>-5.738010827701197</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
+    <row r="32" spans="1:7">
+      <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>-35.76094739872713</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>-1.603794152674603</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>-18.11865196862636</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
         <v>-27.82695407933107</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32">
         <v>-5.237504642682095</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G32">
         <v>-5.713870329628832</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
+    <row r="33" spans="1:7">
+      <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>-35.29232124883546</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>-1.432348042566798</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>-17.77606234406808</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
         <v>-27.53834084540021</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F33">
         <v>-5.213331225133599</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G33">
         <v>-5.668267564825372</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
+    <row r="34" spans="1:7">
+      <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>-34.77972397380031</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>-1.244815168276804</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>-17.40132758365302</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
         <v>-27.22293263076597</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34">
         <v>-5.137078348971099</v>
       </c>
-      <c r="G34" t="n">
+      <c r="G34">
         <v>-5.576962718852272</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
+    <row r="35" spans="1:7">
+      <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>-34.23749953297087</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>-1.046443243860981</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>-17.00493385348448</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
         <v>-26.93650664978082</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F35">
         <v>-5.10737640737632</v>
       </c>
-      <c r="G35" t="n">
+      <c r="G35">
         <v>-5.513436660499197</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
+    <row r="36" spans="1:7">
+      <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>-33.67929717897144</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>-0.8422258260571627</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>-16.59685945360642</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
         <v>-26.52708278627334</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36">
         <v>-5.0668916072993</v>
       </c>
-      <c r="G36" t="n">
+      <c r="G36">
         <v>-5.40277174421244</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
+    <row r="37" spans="1:7">
+      <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>-33.10433310935534</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>-0.6318761620227931</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>-16.17653138444124</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
         <v>-26.20223723180711</v>
       </c>
-      <c r="F37" t="n">
+      <c r="F37">
         <v>-5.038186191690088</v>
       </c>
-      <c r="G37" t="n">
+      <c r="G37">
         <v>-5.300992332153086</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
+    <row r="38" spans="1:7">
+      <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>-32.53453915212626</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>-0.4234179751451659</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>-15.75998293120658</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
         <v>-25.79399530001563</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F38">
         <v>-5.011827540933008</v>
       </c>
-      <c r="G38" t="n">
+      <c r="G38">
         <v>-5.15375912983954</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
+    <row r="39" spans="1:7">
+      <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>-31.96646349380861</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>-0.215588425112574</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>-15.34469064214263</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
         <v>-25.40808327355597</v>
       </c>
-      <c r="F39" t="n">
+      <c r="F39">
         <v>-4.980587321071231</v>
       </c>
-      <c r="G39" t="n">
+      <c r="G39">
         <v>-5.095794787992441</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
+    <row r="40" spans="1:7">
+      <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>-31.41011799984707</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>-0.01205033651516899</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>-14.937973701688</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
         <v>-25.03918925241713</v>
       </c>
-      <c r="F40" t="n">
+      <c r="F40">
         <v>-4.989301746148681</v>
       </c>
-      <c r="G40" t="n">
+      <c r="G40">
         <v>-4.998031067672223</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
+    <row r="41" spans="1:7">
+      <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>-30.86602788130388</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>0.187004143039352</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>-14.5402160659251</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
         <v>-24.56560144069497</v>
       </c>
-      <c r="F41" t="n">
+      <c r="F41">
         <v>-4.985657757943766</v>
       </c>
-      <c r="G41" t="n">
+      <c r="G41">
         <v>-4.869115113827464</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
+    <row r="42" spans="1:7">
+      <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>-30.33064103152218</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>0.3828745459589558</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>-14.14882096366171</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
         <v>-24.18373786999816</v>
       </c>
-      <c r="F42" t="n">
+      <c r="F42">
         <v>-5.004810440663894</v>
       </c>
-      <c r="G42" t="n">
+      <c r="G42">
         <v>-4.794210710455914</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
+    <row r="43" spans="1:7">
+      <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>-29.81435111718049</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>0.5717583662968467</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>-13.77138669551762</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
         <v>-23.69048742413469</v>
       </c>
-      <c r="F43" t="n">
+      <c r="F43">
         <v>-5.050760808864585</v>
       </c>
-      <c r="G43" t="n">
+      <c r="G43">
         <v>-4.720647078027769</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
+    <row r="44" spans="1:7">
+      <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>-29.30585769474495</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>0.7577898528285526</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>-13.39965206072865</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
         <v>-23.22767285207678</v>
       </c>
-      <c r="F44" t="n">
+      <c r="F44">
         <v>-5.117825433795233</v>
       </c>
-      <c r="G44" t="n">
+      <c r="G44">
         <v>-4.672839489895154</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
+    <row r="45" spans="1:7">
+      <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>-28.81129412355504</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>0.9387251260759747</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>-13.03810085789176</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
         <v>-22.76621229374715</v>
       </c>
-      <c r="F45" t="n">
+      <c r="F45">
         <v>-5.139976806513494</v>
       </c>
-      <c r="G45" t="n">
+      <c r="G45">
         <v>-4.582398696307804</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
+    <row r="46" spans="1:7">
+      <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>-28.32140206542411</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>1.117951333914931</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>-12.67996476943841</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
         <v>-22.27288033535154</v>
       </c>
-      <c r="F46" t="n">
+      <c r="F46">
         <v>-5.236277002191145</v>
       </c>
-      <c r="G46" t="n">
+      <c r="G46">
         <v>-4.48789255279823</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
+    <row r="47" spans="1:7">
+      <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>-27.83179977100012</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>1.297071532175857</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>-12.32204051303838</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
         <v>-21.83670677588075</v>
       </c>
-      <c r="F47" t="n">
+      <c r="F47">
         <v>-5.29844349066904</v>
       </c>
-      <c r="G47" t="n">
+      <c r="G47">
         <v>-4.456064967983677</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
+    <row r="48" spans="1:7">
+      <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>-27.3426900106712</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>1.47601153764405</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>-11.9644763241906</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
         <v>-21.41707573195998</v>
       </c>
-      <c r="F48" t="n">
+      <c r="F48">
         <v>-5.366718360375178</v>
       </c>
-      <c r="G48" t="n">
+      <c r="G48">
         <v>-4.392926243458696</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
+    <row r="49" spans="1:7">
+      <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>-26.83809890664923</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>1.66061536736966</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>-11.59559448325558</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
         <v>-20.86313467744571</v>
       </c>
-      <c r="F49" t="n">
+      <c r="F49">
         <v>-5.428213042889402</v>
       </c>
-      <c r="G49" t="n">
+      <c r="G49">
         <v>-4.345002786232206</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
+    <row r="50" spans="1:7">
+      <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50">
         <v>-26.32511371342506</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C50">
         <v>1.84829016089434</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D50">
         <v>-11.22057613485302</v>
       </c>
-      <c r="E50" t="n">
+      <c r="E50">
         <v>-20.4210514593949</v>
       </c>
-      <c r="F50" t="n">
+      <c r="F50">
         <v>-5.492184543937997</v>
       </c>
-      <c r="G50" t="n">
+      <c r="G50">
         <v>-4.386358121108782</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
+    <row r="51" spans="1:7">
+      <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B51">
         <v>-25.79136723812974</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C51">
         <v>2.04356043549231</v>
       </c>
-      <c r="D51" t="n">
+      <c r="D51">
         <v>-10.83038023002996</v>
       </c>
-      <c r="E51" t="n">
+      <c r="E51">
         <v>-19.8399350323606</v>
       </c>
-      <c r="F51" t="n">
+      <c r="F51">
         <v>-5.555672278423357</v>
       </c>
-      <c r="G51" t="n">
+      <c r="G51">
         <v>-4.28857122696979</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
+    <row r="52" spans="1:7">
+      <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52">
         <v>-25.23679973895472</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C52">
         <v>2.246448047606463</v>
       </c>
-      <c r="D52" t="n">
+      <c r="D52">
         <v>-10.42496309447636</v>
       </c>
-      <c r="E52" t="n">
+      <c r="E52">
         <v>-19.41514152807109</v>
       </c>
-      <c r="F52" t="n">
+      <c r="F52">
         <v>-5.587880859779006</v>
       </c>
-      <c r="G52" t="n">
+      <c r="G52">
         <v>-4.380164090404806</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
+    <row r="53" spans="1:7">
+      <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B53">
         <v>-24.66126872354332</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C53">
         <v>2.457005127832334</v>
       </c>
-      <c r="D53" t="n">
+      <c r="D53">
         <v>-10.00422055900962</v>
       </c>
-      <c r="E53" t="n">
+      <c r="E53">
         <v>-18.9946772449329</v>
       </c>
-      <c r="F53" t="n">
+      <c r="F53">
         <v>-5.654169304453232</v>
       </c>
-      <c r="G53" t="n">
+      <c r="G53">
         <v>-4.358013230201542</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
+    <row r="54" spans="1:7">
+      <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B54">
         <v>-24.06095568876062</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C54">
         <v>2.676628669293468</v>
       </c>
-      <c r="D54" t="n">
+      <c r="D54">
         <v>-9.565361103020699</v>
       </c>
-      <c r="E54" t="n">
+      <c r="E54">
         <v>-18.59807801981514</v>
       </c>
-      <c r="F54" t="n">
+      <c r="F54">
         <v>-5.664780690883093</v>
       </c>
-      <c r="G54" t="n">
+      <c r="G54">
         <v>-4.387745239689737</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
+    <row r="55" spans="1:7">
+      <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B55">
         <v>-23.45136480651002</v>
       </c>
-      <c r="C55" t="n">
+      <c r="C55">
         <v>2.899646496069056</v>
       </c>
-      <c r="D55" t="n">
+      <c r="D55">
         <v>-9.119719067183267</v>
       </c>
-      <c r="E55" t="n">
+      <c r="E55">
         <v>-18.12287354287223</v>
       </c>
-      <c r="F55" t="n">
+      <c r="F55">
         <v>-5.63629644937043</v>
       </c>
-      <c r="G55" t="n">
+      <c r="G55">
         <v>-4.383607057765648</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
+    <row r="56" spans="1:7">
+      <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B56">
         <v>-22.83237781292297</v>
       </c>
-      <c r="C56" t="n">
+      <c r="C56">
         <v>3.126101874801884</v>
       </c>
-      <c r="D56" t="n">
+      <c r="D56">
         <v>-8.66720799457568</v>
       </c>
-      <c r="E56" t="n">
+      <c r="E56">
         <v>-17.83448220416776</v>
       </c>
-      <c r="F56" t="n">
+      <c r="F56">
         <v>-5.706015163459647</v>
       </c>
-      <c r="G56" t="n">
+      <c r="G56">
         <v>-4.513112288716398</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
+    <row r="57" spans="1:7">
+      <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B57">
         <v>-22.21965653077434</v>
       </c>
-      <c r="C57" t="n">
+      <c r="C57">
         <v>3.350264953257776</v>
       </c>
-      <c r="D57" t="n">
+      <c r="D57">
         <v>-8.219277476701919</v>
       </c>
-      <c r="E57" t="n">
+      <c r="E57">
         <v>-17.34164384943898</v>
       </c>
-      <c r="F57" t="n">
+      <c r="F57">
         <v>-5.659783150342004</v>
       </c>
-      <c r="G57" t="n">
+      <c r="G57">
         <v>-4.611753303604522</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
+    <row r="58" spans="1:7">
+      <c r="A58" s="1">
         <v>56</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B58">
         <v>-21.61761450415474</v>
       </c>
-      <c r="C58" t="n">
+      <c r="C58">
         <v>3.570521043553232</v>
       </c>
-      <c r="D58" t="n">
+      <c r="D58">
         <v>-7.779154039468225</v>
       </c>
-      <c r="E58" t="n">
+      <c r="E58">
         <v>-17.09281325966551</v>
       </c>
-      <c r="F58" t="n">
+      <c r="F58">
         <v>-5.700744261675633</v>
       </c>
-      <c r="G58" t="n">
+      <c r="G58">
         <v>-4.67235615024642</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
+    <row r="59" spans="1:7">
+      <c r="A59" s="1">
         <v>57</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B59">
         <v>-21.03174319185507</v>
       </c>
-      <c r="C59" t="n">
+      <c r="C59">
         <v>3.784861104475468</v>
       </c>
-      <c r="D59" t="n">
+      <c r="D59">
         <v>-7.350852219421252</v>
       </c>
-      <c r="E59" t="n">
+      <c r="E59">
         <v>-16.70558344726962</v>
       </c>
-      <c r="F59" t="n">
+      <c r="F59">
         <v>-5.664030190016157</v>
       </c>
-      <c r="G59" t="n">
+      <c r="G59">
         <v>-4.82398244649058</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
+    <row r="60" spans="1:7">
+      <c r="A60" s="1">
         <v>58</v>
       </c>
-      <c r="B60" t="n">
+      <c r="B60">
         <v>-20.471171763964</v>
       </c>
-      <c r="C60" t="n">
+      <c r="C60">
         <v>3.989945244085942</v>
       </c>
-      <c r="D60" t="n">
+      <c r="D60">
         <v>-6.941045905659862</v>
       </c>
-      <c r="E60" t="n">
+      <c r="E60">
         <v>-16.36721134094248</v>
       </c>
-      <c r="F60" t="n">
+      <c r="F60">
         <v>-5.646621220678923</v>
       </c>
-      <c r="G60" t="n">
+      <c r="G60">
         <v>-4.934667226050572</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
+    <row r="61" spans="1:7">
+      <c r="A61" s="1">
         <v>59</v>
       </c>
-      <c r="B61" t="n">
+      <c r="B61">
         <v>-19.92946186823232</v>
       </c>
-      <c r="C61" t="n">
+      <c r="C61">
         <v>4.188128923019716</v>
       </c>
-      <c r="D61" t="n">
+      <c r="D61">
         <v>-6.545028334209531</v>
       </c>
-      <c r="E61" t="n">
+      <c r="E61">
         <v>-16.07892415714018</v>
       </c>
-      <c r="F61" t="n">
+      <c r="F61">
         <v>-5.660785474899392</v>
       </c>
-      <c r="G61" t="n">
+      <c r="G61">
         <v>-5.021267786812367</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
+    <row r="62" spans="1:7">
+      <c r="A62" s="1">
         <v>60</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B62">
         <v>-19.4188350032753</v>
       </c>
-      <c r="C62" t="n">
+      <c r="C62">
         <v>4.374940926006878</v>
       </c>
-      <c r="D62" t="n">
+      <c r="D62">
         <v>-6.171734044090565</v>
       </c>
-      <c r="E62" t="n">
+      <c r="E62">
         <v>-15.76741043015254</v>
       </c>
-      <c r="F62" t="n">
+      <c r="F62">
         <v>-5.687666825487638</v>
       </c>
-      <c r="G62" t="n">
+      <c r="G62">
         <v>-5.174615566736948</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
+    <row r="63" spans="1:7">
+      <c r="A63" s="1">
         <v>61</v>
       </c>
-      <c r="B63" t="n">
+      <c r="B63">
         <v>-18.93652671867723</v>
       </c>
-      <c r="C63" t="n">
+      <c r="C63">
         <v>4.551392622708445</v>
       </c>
-      <c r="D63" t="n">
+      <c r="D63">
         <v>-5.8191420810087</v>
       </c>
-      <c r="E63" t="n">
+      <c r="E63">
         <v>-15.53732772277082</v>
       </c>
-      <c r="F63" t="n">
+      <c r="F63">
         <v>-5.652271514733418</v>
       </c>
-      <c r="G63" t="n">
+      <c r="G63">
         <v>-5.297337489877731</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
+    <row r="64" spans="1:7">
+      <c r="A64" s="1">
         <v>62</v>
       </c>
-      <c r="B64" t="n">
+      <c r="B64">
         <v>-18.48652863574442</v>
       </c>
-      <c r="C64" t="n">
+      <c r="C64">
         <v>4.716023685001137</v>
       </c>
-      <c r="D64" t="n">
+      <c r="D64">
         <v>-5.49017052378866</v>
       </c>
-      <c r="E64" t="n">
+      <c r="E64">
         <v>-15.31239389033583</v>
       </c>
-      <c r="F64" t="n">
+      <c r="F64">
         <v>-5.708392577905681</v>
       </c>
-      <c r="G64" t="n">
+      <c r="G64">
         <v>-5.476514146099706</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
+    <row r="65" spans="1:7">
+      <c r="A65" s="1">
         <v>63</v>
       </c>
-      <c r="B65" t="n">
+      <c r="B65">
         <v>-18.06919289974858</v>
       </c>
-      <c r="C65" t="n">
+      <c r="C65">
         <v>4.868705281113529</v>
       </c>
-      <c r="D65" t="n">
+      <c r="D65">
         <v>-5.185076808590269</v>
       </c>
-      <c r="E65" t="n">
+      <c r="E65">
         <v>-15.07915483657077</v>
       </c>
-      <c r="F65" t="n">
+      <c r="F65">
         <v>-5.685455912889566</v>
       </c>
-      <c r="G65" t="n">
+      <c r="G65">
         <v>-5.479781654546966</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
+    <row r="66" spans="1:7">
+      <c r="A66" s="1">
         <v>64</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B66">
         <v>-17.67822903636972</v>
       </c>
-      <c r="C66" t="n">
+      <c r="C66">
         <v>5.011738770782254</v>
       </c>
-      <c r="D66" t="n">
+      <c r="D66">
         <v>-4.899262277749901</v>
       </c>
-      <c r="E66" t="n">
+      <c r="E66">
         <v>-14.94462293075089</v>
       </c>
-      <c r="F66" t="n">
+      <c r="F66">
         <v>-5.720311128097161</v>
       </c>
-      <c r="G66" t="n">
+      <c r="G66">
         <v>-5.63992929500921</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
+    <row r="67" spans="1:7">
+      <c r="A67" s="1">
         <v>65</v>
       </c>
-      <c r="B67" t="n">
+      <c r="B67">
         <v>-17.32142752299315</v>
       </c>
-      <c r="C67" t="n">
+      <c r="C67">
         <v>5.142274020603742</v>
       </c>
-      <c r="D67" t="n">
+      <c r="D67">
         <v>-4.63842216770107</v>
       </c>
-      <c r="E67" t="n">
+      <c r="E67">
         <v>-14.80798981299146</v>
       </c>
-      <c r="F67" t="n">
+      <c r="F67">
         <v>-5.772802285310357</v>
       </c>
-      <c r="G67" t="n">
+      <c r="G67">
         <v>-5.654250715012097</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
+    <row r="68" spans="1:7">
+      <c r="A68" s="1">
         <v>66</v>
       </c>
-      <c r="B68" t="n">
+      <c r="B68">
         <v>-16.99310996583336</v>
       </c>
-      <c r="C68" t="n">
+      <c r="C68">
         <v>5.262388461652659</v>
       </c>
-      <c r="D68" t="n">
+      <c r="D68">
         <v>-4.398405282878775</v>
       </c>
-      <c r="E68" t="n">
+      <c r="E68">
         <v>-14.71722560845573</v>
       </c>
-      <c r="F68" t="n">
+      <c r="F68">
         <v>-5.768147688874027</v>
       </c>
-      <c r="G68" t="n">
+      <c r="G68">
         <v>-5.752540812073058</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
+    <row r="69" spans="1:7">
+      <c r="A69" s="1">
         <v>67</v>
       </c>
-      <c r="B69" t="n">
+      <c r="B69">
         <v>-16.70091244686239</v>
       </c>
-      <c r="C69" t="n">
+      <c r="C69">
         <v>5.36928844583473</v>
       </c>
-      <c r="D69" t="n">
+      <c r="D69">
         <v>-4.184793988792297</v>
       </c>
-      <c r="E69" t="n">
+      <c r="E69">
         <v>-14.64522740020778</v>
       </c>
-      <c r="F69" t="n">
+      <c r="F69">
         <v>-5.796935112856115</v>
       </c>
-      <c r="G69" t="n">
+      <c r="G69">
         <v>-5.772016751480591</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
+    <row r="70" spans="1:7">
+      <c r="A70" s="1">
         <v>68</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B70">
         <v>-16.44394001922821</v>
       </c>
-      <c r="C70" t="n">
+      <c r="C70">
         <v>5.46330138799134</v>
       </c>
-      <c r="D70" t="n">
+      <c r="D70">
         <v>-3.996934033633211</v>
       </c>
-      <c r="E70" t="n">
+      <c r="E70">
         <v>-14.61688368139377</v>
       </c>
-      <c r="F70" t="n">
+      <c r="F70">
         <v>-5.892968574230065</v>
       </c>
-      <c r="G70" t="n">
+      <c r="G70">
         <v>-5.803559629378767</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
+    <row r="71" spans="1:7">
+      <c r="A71" s="1">
         <v>69</v>
       </c>
-      <c r="B71" t="n">
+      <c r="B71">
         <v>-16.23047833443681</v>
       </c>
-      <c r="C71" t="n">
+      <c r="C71">
         <v>5.541395996077131</v>
       </c>
-      <c r="D71" t="n">
+      <c r="D71">
         <v>-3.840882651380717</v>
       </c>
-      <c r="E71" t="n">
+      <c r="E71">
         <v>-14.52613759075406</v>
       </c>
-      <c r="F71" t="n">
+      <c r="F71">
         <v>-5.930626984728733</v>
       </c>
-      <c r="G71" t="n">
+      <c r="G71">
         <v>-5.821820598573387</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
+    <row r="72" spans="1:7">
+      <c r="A72" s="1">
         <v>70</v>
       </c>
-      <c r="B72" t="n">
+      <c r="B72">
         <v>-16.07000042734433</v>
       </c>
-      <c r="C72" t="n">
+      <c r="C72">
         <v>5.600106575791064</v>
       </c>
-      <c r="D72" t="n">
+      <c r="D72">
         <v>-3.723565113822427</v>
       </c>
-      <c r="E72" t="n">
+      <c r="E72">
         <v>-14.61296202290312</v>
       </c>
-      <c r="F72" t="n">
+      <c r="F72">
         <v>-5.966390918977199</v>
       </c>
-      <c r="G72" t="n">
+      <c r="G72">
         <v>-5.840114673223399</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
+    <row r="73" spans="1:7">
+      <c r="A73" s="1">
         <v>71</v>
       </c>
-      <c r="B73" t="n">
+      <c r="B73">
         <v>-15.96565325786969</v>
       </c>
-      <c r="C73" t="n">
+      <c r="C73">
         <v>5.63828181699628</v>
       </c>
-      <c r="D73" t="n">
+      <c r="D73">
         <v>-3.647282009214846</v>
       </c>
-      <c r="E73" t="n">
+      <c r="E73">
         <v>-14.66676482258826</v>
       </c>
-      <c r="F73" t="n">
+      <c r="F73">
         <v>-6.039961541489435</v>
       </c>
-      <c r="G73" t="n">
+      <c r="G73">
         <v>-5.807052254922698</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
+    <row r="74" spans="1:7">
+      <c r="A74" s="1">
         <v>72</v>
       </c>
-      <c r="B74" t="n">
+      <c r="B74">
         <v>-15.93087849013336</v>
       </c>
-      <c r="C74" t="n">
+      <c r="C74">
         <v>5.651004108869396</v>
       </c>
-      <c r="D74" t="n">
+      <c r="D74">
         <v>-3.621859879814588</v>
       </c>
-      <c r="E74" t="n">
+      <c r="E74">
         <v>-14.6788966044548</v>
       </c>
-      <c r="F74" t="n">
+      <c r="F74">
         <v>-6.097514023533735</v>
       </c>
-      <c r="G74" t="n">
+      <c r="G74">
         <v>-5.790512769408499</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
+    <row r="75" spans="1:7">
+      <c r="A75" s="1">
         <v>73</v>
       </c>
-      <c r="B75" t="n">
+      <c r="B75">
         <v>-15.96556238530286</v>
       </c>
-      <c r="C75" t="n">
+      <c r="C75">
         <v>5.638315062576159</v>
       </c>
-      <c r="D75" t="n">
+      <c r="D75">
         <v>-3.647215576732233</v>
       </c>
-      <c r="E75" t="n">
+      <c r="E75">
         <v>-14.87727999378283</v>
       </c>
-      <c r="F75" t="n">
+      <c r="F75">
         <v>-6.18543859640168</v>
       </c>
-      <c r="G75" t="n">
+      <c r="G75">
         <v>-5.706454707620864</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
+    <row r="76" spans="1:7">
+      <c r="A76" s="1">
         <v>74</v>
       </c>
-      <c r="B76" t="n">
+      <c r="B76">
         <v>-16.07922543671204</v>
       </c>
-      <c r="C76" t="n">
+      <c r="C76">
         <v>5.596731621209105</v>
       </c>
-      <c r="D76" t="n">
+      <c r="D76">
         <v>-3.730309066323931</v>
       </c>
-      <c r="E76" t="n">
+      <c r="E76">
         <v>-15.05745438912601</v>
       </c>
-      <c r="F76" t="n">
+      <c r="F76">
         <v>-6.225124850302402</v>
       </c>
-      <c r="G76" t="n">
+      <c r="G76">
         <v>-5.652078997138335</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
+    <row r="77" spans="1:7">
+      <c r="A77" s="1">
         <v>75</v>
       </c>
-      <c r="B77" t="n">
+      <c r="B77">
         <v>-16.27016949782551</v>
       </c>
-      <c r="C77" t="n">
+      <c r="C77">
         <v>5.526875048899476</v>
       </c>
-      <c r="D77" t="n">
+      <c r="D77">
         <v>-3.869898916834014</v>
       </c>
-      <c r="E77" t="n">
+      <c r="E77">
         <v>-15.38810997574407</v>
       </c>
-      <c r="F77" t="n">
+      <c r="F77">
         <v>-6.336013424310755</v>
       </c>
-      <c r="G77" t="n">
+      <c r="G77">
         <v>-5.654310304831804</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
+    <row r="78" spans="1:7">
+      <c r="A78" s="1">
         <v>76</v>
       </c>
-      <c r="B78" t="n">
+      <c r="B78">
         <v>-16.5402874520959</v>
       </c>
-      <c r="C78" t="n">
+      <c r="C78">
         <v>5.428052837333516</v>
       </c>
-      <c r="D78" t="n">
+      <c r="D78">
         <v>-4.067368922639993</v>
       </c>
-      <c r="E78" t="n">
+      <c r="E78">
         <v>-15.75592169159508</v>
       </c>
-      <c r="F78" t="n">
+      <c r="F78">
         <v>-6.383133861467901</v>
       </c>
-      <c r="G78" t="n">
+      <c r="G78">
         <v>-5.560145147512775</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
+    <row r="79" spans="1:7">
+      <c r="A79" s="1">
         <v>77</v>
       </c>
-      <c r="B79" t="n">
+      <c r="B79">
         <v>-16.89250583614446</v>
       </c>
-      <c r="C79" t="n">
+      <c r="C79">
         <v>5.299194317877135</v>
       </c>
-      <c r="D79" t="n">
+      <c r="D79">
         <v>-4.324858531321914</v>
       </c>
-      <c r="E79" t="n">
+      <c r="E79">
         <v>-16.09114198001287</v>
       </c>
-      <c r="F79" t="n">
+      <c r="F79">
         <v>-6.44887599783998</v>
       </c>
-      <c r="G79" t="n">
+      <c r="G79">
         <v>-5.539563485895125</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
+    <row r="80" spans="1:7">
+      <c r="A80" s="1">
         <v>78</v>
       </c>
-      <c r="B80" t="n">
+      <c r="B80">
         <v>-17.32271637470396</v>
       </c>
-      <c r="C80" t="n">
+      <c r="C80">
         <v>5.14180249631434</v>
       </c>
-      <c r="D80" t="n">
+      <c r="D80">
         <v>-4.639364384058005</v>
       </c>
-      <c r="E80" t="n">
+      <c r="E80">
         <v>-16.611934604791</v>
       </c>
-      <c r="F80" t="n">
+      <c r="F80">
         <v>-6.540329001660149</v>
       </c>
-      <c r="G80" t="n">
+      <c r="G80">
         <v>-5.367670029859547</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
+    <row r="81" spans="1:7">
+      <c r="A81" s="1">
         <v>79</v>
       </c>
-      <c r="B81" t="n">
+      <c r="B81">
         <v>-17.8383846686669</v>
       </c>
-      <c r="C81" t="n">
+      <c r="C81">
         <v>4.953146094774835</v>
       </c>
-      <c r="D81" t="n">
+      <c r="D81">
         <v>-5.016344215990578</v>
       </c>
-      <c r="E81" t="n">
+      <c r="E81">
         <v>-17.16854745896979</v>
       </c>
-      <c r="F81" t="n">
+      <c r="F81">
         <v>-6.620329826136615</v>
       </c>
-      <c r="G81" t="n">
+      <c r="G81">
         <v>-5.361595178794984</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
+    <row r="82" spans="1:7">
+      <c r="A82" s="1">
         <v>80</v>
       </c>
-      <c r="B82" t="n">
+      <c r="B82">
         <v>-18.42775531820342</v>
       </c>
-      <c r="C82" t="n">
+      <c r="C82">
         <v>4.73752580705059</v>
       </c>
-      <c r="D82" t="n">
+      <c r="D82">
         <v>-5.447204230091496</v>
       </c>
-      <c r="E82" t="n">
+      <c r="E82">
         <v>-17.7827896733702</v>
       </c>
-      <c r="F82" t="n">
+      <c r="F82">
         <v>-6.688719424728041</v>
       </c>
-      <c r="G82" t="n">
+      <c r="G82">
         <v>-5.250903778143914</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
+    <row r="83" spans="1:7">
+      <c r="A83" s="1">
         <v>81</v>
       </c>
-      <c r="B83" t="n">
+      <c r="B83">
         <v>-19.10451427209921</v>
       </c>
-      <c r="C83" t="n">
+      <c r="C83">
         <v>4.489934651173175</v>
       </c>
-      <c r="D83" t="n">
+      <c r="D83">
         <v>-5.941949553170898</v>
       </c>
-      <c r="E83" t="n">
+      <c r="E83">
         <v>-18.53635491909059</v>
       </c>
-      <c r="F83" t="n">
+      <c r="F83">
         <v>-6.741757304427085</v>
       </c>
-      <c r="G83" t="n">
+      <c r="G83">
         <v>-5.257644048861869</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
+    <row r="84" spans="1:7">
+      <c r="A84" s="1">
         <v>82</v>
       </c>
-      <c r="B84" t="n">
+      <c r="B84">
         <v>-19.86562160210209</v>
       </c>
-      <c r="C84" t="n">
+      <c r="C84">
         <v>4.211484779919306</v>
       </c>
-      <c r="D84" t="n">
+      <c r="D84">
         <v>-6.498357842581366</v>
       </c>
-      <c r="E84" t="n">
+      <c r="E84">
         <v>-19.43261690926668</v>
       </c>
-      <c r="F84" t="n">
+      <c r="F84">
         <v>-6.840847855701067</v>
       </c>
-      <c r="G84" t="n">
+      <c r="G84">
         <v>-5.159635348171746</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
+    <row r="85" spans="1:7">
+      <c r="A85" s="1">
         <v>83</v>
       </c>
-      <c r="B85" t="n">
+      <c r="B85">
         <v>-20.71855540819734</v>
       </c>
-      <c r="C85" t="n">
+      <c r="C85">
         <v>3.899440342646056</v>
       </c>
-      <c r="D85" t="n">
+      <c r="D85">
         <v>-7.121895970939718</v>
       </c>
-      <c r="E85" t="n">
+      <c r="E85">
         <v>-20.26577461414589</v>
       </c>
-      <c r="F85" t="n">
+      <c r="F85">
         <v>-6.897260918382817</v>
       </c>
-      <c r="G85" t="n">
+      <c r="G85">
         <v>-5.212461723341897</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
+    <row r="86" spans="1:7">
+      <c r="A86" s="1">
         <v>84</v>
       </c>
-      <c r="B86" t="n">
+      <c r="B86">
         <v>-21.67506988760745</v>
       </c>
-      <c r="C86" t="n">
+      <c r="C86">
         <v>3.549501085533398</v>
       </c>
-      <c r="D86" t="n">
+      <c r="D86">
         <v>-7.821156856106744</v>
       </c>
-      <c r="E86" t="n">
+      <c r="E86">
         <v>-21.28335442298748</v>
       </c>
-      <c r="F86" t="n">
+      <c r="F86">
         <v>-6.982354131467993</v>
       </c>
-      <c r="G86" t="n">
+      <c r="G86">
         <v>-5.162532075518609</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
+    <row r="87" spans="1:7">
+      <c r="A87" s="1">
         <v>85</v>
       </c>
-      <c r="B87" t="n">
+      <c r="B87">
         <v>-22.7333833970834</v>
       </c>
-      <c r="C87" t="n">
+      <c r="C87">
         <v>3.162318819848617</v>
       </c>
-      <c r="D87" t="n">
+      <c r="D87">
         <v>-8.594838025969183</v>
       </c>
-      <c r="E87" t="n">
+      <c r="E87">
         <v>-22.50141430462264</v>
       </c>
-      <c r="F87" t="n">
+      <c r="F87">
         <v>-7.053746976078268</v>
       </c>
-      <c r="G87" t="n">
+      <c r="G87">
         <v>-5.173258243065847</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
+    <row r="88" spans="1:7">
+      <c r="A88" s="1">
         <v>86</v>
       </c>
-      <c r="B88" t="n">
+      <c r="B88">
         <v>-23.91640506229356</v>
       </c>
-      <c r="C88" t="n">
+      <c r="C88">
         <v>2.729512279452979</v>
       </c>
-      <c r="D88" t="n">
+      <c r="D88">
         <v>-9.459687220198623</v>
       </c>
-      <c r="E88" t="n">
+      <c r="E88">
         <v>-23.80249470024041</v>
       </c>
-      <c r="F88" t="n">
+      <c r="F88">
         <v>-7.113223341415572</v>
       </c>
-      <c r="G88" t="n">
+      <c r="G88">
         <v>-5.214828763402475</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
+    <row r="89" spans="1:7">
+      <c r="A89" s="1">
         <v>87</v>
       </c>
-      <c r="B89" t="n">
+      <c r="B89">
         <v>-25.21498803648926</v>
       </c>
-      <c r="C89" t="n">
+      <c r="C89">
         <v>2.254427823262166</v>
       </c>
-      <c r="D89" t="n">
+      <c r="D89">
         <v>-10.40901762715589</v>
       </c>
-      <c r="E89" t="n">
+      <c r="E89">
         <v>-25.19759527320544</v>
       </c>
-      <c r="F89" t="n">
+      <c r="F89">
         <v>-7.195266919907342</v>
       </c>
-      <c r="G89" t="n">
+      <c r="G89">
         <v>-5.306451421747345</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
+    <row r="90" spans="1:7">
+      <c r="A90" s="1">
         <v>88</v>
       </c>
-      <c r="B90" t="n">
+      <c r="B90">
         <v>-26.64610118028744</v>
       </c>
-      <c r="C90" t="n">
+      <c r="C90">
         <v>1.730857421386238</v>
       </c>
-      <c r="D90" t="n">
+      <c r="D90">
         <v>-11.45523434969168</v>
       </c>
-      <c r="E90" t="n">
+      <c r="E90">
         <v>-26.6972718964296</v>
       </c>
-      <c r="F90" t="n">
+      <c r="F90">
         <v>-7.274849833029096</v>
       </c>
-      <c r="G90" t="n">
+      <c r="G90">
         <v>-5.408538714541851</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
+    <row r="91" spans="1:7">
+      <c r="A91" s="1">
         <v>89</v>
       </c>
-      <c r="B91" t="n">
+      <c r="B91">
         <v>-28.20946673507618</v>
       </c>
-      <c r="C91" t="n">
+      <c r="C91">
         <v>1.158902691358856</v>
       </c>
-      <c r="D91" t="n">
+      <c r="D91">
         <v>-12.59813433208965</v>
       </c>
-      <c r="E91" t="n">
+      <c r="E91">
         <v>-28.42786446625289</v>
       </c>
-      <c r="F91" t="n">
+      <c r="F91">
         <v>-7.319121928871716</v>
       </c>
-      <c r="G91" t="n">
+      <c r="G91">
         <v>-5.585113281969957</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
+    <row r="92" spans="1:7">
+      <c r="A92" s="1">
         <v>90</v>
       </c>
-      <c r="B92" t="n">
+      <c r="B92">
         <v>-29.90203150537058</v>
       </c>
-      <c r="C92" t="n">
+      <c r="C92">
         <v>0.5396806397521198</v>
       </c>
-      <c r="D92" t="n">
+      <c r="D92">
         <v>-13.83548553267836</v>
       </c>
-      <c r="E92" t="n">
+      <c r="E92">
         <v>-30.1705118338846</v>
       </c>
-      <c r="F92" t="n">
+      <c r="F92">
         <v>-7.412361306996022</v>
       </c>
-      <c r="G92" t="n">
+      <c r="G92">
         <v>-5.776406534865664</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
+    <row r="93" spans="1:7">
+      <c r="A93" s="1">
         <v>91</v>
       </c>
-      <c r="B93" t="n">
+      <c r="B93">
         <v>-31.73685498155317</v>
       </c>
-      <c r="C93" t="n">
+      <c r="C93">
         <v>-0.1315865266207041</v>
       </c>
-      <c r="D93" t="n">
+      <c r="D93">
         <v>-15.17683510521376</v>
       </c>
-      <c r="E93" t="n">
+      <c r="E93">
         <v>-32.14208488378906</v>
       </c>
-      <c r="F93" t="n">
+      <c r="F93">
         <v>-7.460496494221597</v>
       </c>
-      <c r="G93" t="n">
+      <c r="G93">
         <v>-6.029083923150538</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
+    <row r="94" spans="1:7">
+      <c r="A94" s="1">
         <v>92</v>
       </c>
-      <c r="B94" t="n">
+      <c r="B94">
         <v>-33.68498053153904</v>
       </c>
-      <c r="C94" t="n">
+      <c r="C94">
         <v>-0.8443050712941426</v>
       </c>
-      <c r="D94" t="n">
+      <c r="D94">
         <v>-16.60101427429412</v>
       </c>
-      <c r="E94" t="n">
+      <c r="E94">
         <v>-34.15248959830929</v>
       </c>
-      <c r="F94" t="n">
+      <c r="F94">
         <v>-7.553599605908143</v>
       </c>
-      <c r="G94" t="n">
+      <c r="G94">
         <v>-6.354020588921084</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
+    <row r="95" spans="1:7">
+      <c r="A95" s="1">
         <v>93</v>
       </c>
-      <c r="B95" t="n">
+      <c r="B95">
         <v>-35.76015066040763</v>
       </c>
-      <c r="C95" t="n">
+      <c r="C95">
         <v>-1.603502667264146</v>
       </c>
-      <c r="D95" t="n">
+      <c r="D95">
         <v>-18.11806951226576</v>
       </c>
-      <c r="E95" t="n">
+      <c r="E95">
         <v>-36.25294754694607</v>
       </c>
-      <c r="F95" t="n">
+      <c r="F95">
         <v>-7.612084415464295</v>
       </c>
-      <c r="G95" t="n">
+      <c r="G95">
         <v>-6.746505625874918</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
+    <row r="96" spans="1:7">
+      <c r="A96" s="1">
         <v>94</v>
       </c>
-      <c r="B96" t="n">
+      <c r="B96">
         <v>-37.95142702753318</v>
       </c>
-      <c r="C96" t="n">
+      <c r="C96">
         <v>-2.405177540511584</v>
       </c>
-      <c r="D96" t="n">
+      <c r="D96">
         <v>-19.72000433406454</v>
       </c>
-      <c r="E96" t="n">
+      <c r="E96">
         <v>-38.55525316752673</v>
       </c>
-      <c r="F96" t="n">
+      <c r="F96">
         <v>-7.605636817784606</v>
       </c>
-      <c r="G96" t="n">
+      <c r="G96">
         <v>-7.063493671805674</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
+    <row r="97" spans="1:7">
+      <c r="A97" s="1">
         <v>95</v>
       </c>
-      <c r="B97" t="n">
+      <c r="B97">
         <v>-40.22196552270475</v>
       </c>
-      <c r="C97" t="n">
+      <c r="C97">
         <v>-3.235850333605148</v>
       </c>
-      <c r="D97" t="n">
+      <c r="D97">
         <v>-21.37988381536484</v>
       </c>
-      <c r="E97" t="n">
+      <c r="E97">
         <v>-40.7394901495424</v>
       </c>
-      <c r="F97" t="n">
+      <c r="F97">
         <v>-7.671305643641537</v>
       </c>
-      <c r="G97" t="n">
+      <c r="G97">
         <v>-7.504445095454439</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
+    <row r="98" spans="1:7">
+      <c r="A98" s="1">
         <v>96</v>
       </c>
-      <c r="B98" t="n">
+      <c r="B98">
         <v>-42.60419357323865</v>
       </c>
-      <c r="C98" t="n">
+      <c r="C98">
         <v>-4.107384567766325</v>
       </c>
-      <c r="D98" t="n">
+      <c r="D98">
         <v>-23.12141405996015</v>
       </c>
-      <c r="E98" t="n">
+      <c r="E98">
         <v>-43.17964478315355</v>
       </c>
-      <c r="F98" t="n">
+      <c r="F98">
         <v>-7.67251091821261</v>
       </c>
-      <c r="G98" t="n">
+      <c r="G98">
         <v>-8.0477950031784</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
+    <row r="99" spans="1:7">
+      <c r="A99" s="1">
         <v>97</v>
       </c>
-      <c r="B99" t="n">
+      <c r="B99">
         <v>-44.98494998537814</v>
       </c>
-      <c r="C99" t="n">
+      <c r="C99">
         <v>-4.978380405429011</v>
       </c>
-      <c r="D99" t="n">
+      <c r="D99">
         <v>-24.86186846180718</v>
       </c>
-      <c r="E99" t="n">
+      <c r="E99">
         <v>-45.41990804559212</v>
       </c>
-      <c r="F99" t="n">
+      <c r="F99">
         <v>-7.624559628550456</v>
       </c>
-      <c r="G99" t="n">
+      <c r="G99">
         <v>-8.535355597474565</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
+    <row r="100" spans="1:7">
+      <c r="A100" s="1">
         <v>98</v>
       </c>
-      <c r="B100" t="n">
+      <c r="B100">
         <v>-47.47711674991811</v>
       </c>
-      <c r="C100" t="n">
+      <c r="C100">
         <v>-5.890135538212582</v>
       </c>
-      <c r="D100" t="n">
+      <c r="D100">
         <v>-26.68376951533935</v>
       </c>
-      <c r="E100" t="n">
+      <c r="E100">
         <v>-47.9262644407214</v>
       </c>
-      <c r="F100" t="n">
+      <c r="F100">
         <v>-7.594422794069208</v>
       </c>
-      <c r="G100" t="n">
+      <c r="G100">
         <v>-9.011282934745729</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
+    <row r="101" spans="1:7">
+      <c r="A101" s="1">
         <v>99</v>
       </c>
-      <c r="B101" t="n">
+      <c r="B101">
         <v>-49.85118541105822</v>
       </c>
-      <c r="C101" t="n">
+      <c r="C101">
         <v>-6.75868467311555</v>
       </c>
-      <c r="D101" t="n">
+      <c r="D101">
         <v>-28.41933483000131</v>
       </c>
-      <c r="E101" t="n">
+      <c r="E101">
         <v>-50.14509556780018</v>
       </c>
-      <c r="F101" t="n">
+      <c r="F101">
         <v>-7.529693336847051</v>
       </c>
-      <c r="G101" t="n">
+      <c r="G101">
         <v>-9.50272348841392</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
+    <row r="102" spans="1:7">
+      <c r="A102" s="1">
         <v>100</v>
       </c>
-      <c r="B102" t="n">
+      <c r="B102">
         <v>-52.41273095375955</v>
       </c>
-      <c r="C102" t="n">
+      <c r="C102">
         <v>-7.69582191836243</v>
       </c>
-      <c r="D102" t="n">
+      <c r="D102">
         <v>-30.29195531002752</v>
       </c>
-      <c r="E102" t="n">
+      <c r="E102">
         <v>-52.5926768987839</v>
       </c>
-      <c r="F102" t="n">
+      <c r="F102">
         <v>-7.411103431094871</v>
       </c>
-      <c r="G102" t="n">
+      <c r="G102">
         <v>-10.0147324615176</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
+    <row r="103" spans="1:7">
+      <c r="A103" s="1">
         <v>101</v>
       </c>
-      <c r="B103" t="n">
+      <c r="B103">
         <v>-41.06059535918862</v>
       </c>
-      <c r="C103" t="n">
+      <c r="C103">
         <v>-3.542661687002186</v>
       </c>
-      <c r="D103" t="n">
+      <c r="D103">
         <v>-21.99296501215848</v>
       </c>
-      <c r="E103" t="inlineStr"/>
-      <c r="F103" t="inlineStr"/>
-      <c r="G103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="1">
         <v>102</v>
       </c>
-      <c r="B104" t="n">
+      <c r="B104">
         <v>-41.17977809033071</v>
       </c>
-      <c r="C104" t="n">
+      <c r="C104">
         <v>-3.58626449416747</v>
       </c>
-      <c r="D104" t="n">
+      <c r="D104">
         <v>-22.08009366924523</v>
       </c>
-      <c r="E104" t="inlineStr"/>
-      <c r="F104" t="inlineStr"/>
-      <c r="G104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" s="1">
         <v>103</v>
       </c>
-      <c r="B105" t="n">
+      <c r="B105">
         <v>-41.23275363484156</v>
       </c>
-      <c r="C105" t="n">
+      <c r="C105">
         <v>-3.605645510440943</v>
       </c>
-      <c r="D105" t="n">
+      <c r="D105">
         <v>-22.11882149505891</v>
       </c>
-      <c r="E105" t="inlineStr"/>
-      <c r="F105" t="inlineStr"/>
-      <c r="G105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" s="1">
         <v>104</v>
       </c>
-      <c r="B106" t="n">
+      <c r="B106">
         <v>-41.21332086471703</v>
       </c>
-      <c r="C106" t="n">
+      <c r="C106">
         <v>-3.598536063289435</v>
       </c>
-      <c r="D106" t="n">
+      <c r="D106">
         <v>-22.10461514865116</v>
       </c>
-      <c r="E106" t="inlineStr"/>
-      <c r="F106" t="inlineStr"/>
-      <c r="G106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" s="1">
         <v>105</v>
       </c>
-      <c r="B107" t="n">
+      <c r="B107">
         <v>-41.15004001634274</v>
       </c>
-      <c r="C107" t="n">
+      <c r="C107">
         <v>-3.575384868460463</v>
       </c>
-      <c r="D107" t="n">
+      <c r="D107">
         <v>-22.05835361994371</v>
       </c>
-      <c r="E107" t="inlineStr"/>
-      <c r="F107" t="inlineStr"/>
-      <c r="G107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" s="1">
         <v>106</v>
       </c>
-      <c r="B108" t="n">
+      <c r="B108">
         <v>-41.07394866724624</v>
       </c>
-      <c r="C108" t="n">
+      <c r="C108">
         <v>-3.547546972904559</v>
       </c>
-      <c r="D108" t="n">
+      <c r="D108">
         <v>-22.00272696162529</v>
       </c>
-      <c r="E108" t="inlineStr"/>
-      <c r="F108" t="inlineStr"/>
-      <c r="G108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" s="1">
         <v>107</v>
       </c>
-      <c r="B109" t="n">
+      <c r="B109">
         <v>-41.01435708662174</v>
       </c>
-      <c r="C109" t="n">
+      <c r="C109">
         <v>-3.525745490644962</v>
       </c>
-      <c r="D109" t="n">
+      <c r="D109">
         <v>-21.95916247586686</v>
       </c>
-      <c r="E109" t="inlineStr"/>
-      <c r="F109" t="inlineStr"/>
-      <c r="G109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" s="1">
         <v>108</v>
       </c>
-      <c r="B110" t="n">
+      <c r="B110">
         <v>-40.99580172374269</v>
       </c>
-      <c r="C110" t="n">
+      <c r="C110">
         <v>-3.51895704149848</v>
       </c>
-      <c r="D110" t="n">
+      <c r="D110">
         <v>-21.94559755892028</v>
       </c>
-      <c r="E110" t="inlineStr"/>
-      <c r="F110" t="inlineStr"/>
-      <c r="G110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" s="1">
         <v>109</v>
       </c>
-      <c r="B111" t="n">
+      <c r="B111">
         <v>-41.02698607639531</v>
       </c>
-      <c r="C111" t="n">
+      <c r="C111">
         <v>-3.530365785888346</v>
       </c>
-      <c r="D111" t="n">
+      <c r="D111">
         <v>-21.96839491171381</v>
       </c>
-      <c r="E111" t="inlineStr"/>
-      <c r="F111" t="inlineStr"/>
-      <c r="G111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" s="1">
         <v>110</v>
       </c>
-      <c r="B112" t="n">
+      <c r="B112">
         <v>-41.10545127612732</v>
       </c>
-      <c r="C112" t="n">
+      <c r="C112">
         <v>-3.559072150814834</v>
       </c>
-      <c r="D112" t="n">
+      <c r="D112">
         <v>-22.02575697595904</v>
       </c>
-      <c r="E112" t="inlineStr"/>
-      <c r="F112" t="inlineStr"/>
-      <c r="G112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="1">
         <v>111</v>
       </c>
-      <c r="B113" t="n">
+      <c r="B113">
         <v>-41.21481258400178</v>
       </c>
-      <c r="C113" t="n">
+      <c r="C113">
         <v>-3.599081806348808</v>
       </c>
-      <c r="D113" t="n">
+      <c r="D113">
         <v>-22.10570567155482</v>
       </c>
-      <c r="E113" t="inlineStr"/>
-      <c r="F113" t="inlineStr"/>
-      <c r="G113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="1">
         <v>112</v>
       </c>
-      <c r="B114" t="n">
+      <c r="B114">
         <v>-41.32374038754505</v>
       </c>
-      <c r="C114" t="n">
+      <c r="C114">
         <v>-3.638932865032575</v>
       </c>
-      <c r="D114" t="n">
+      <c r="D114">
         <v>-22.18533745336741</v>
       </c>
-      <c r="E114" t="inlineStr"/>
-      <c r="F114" t="inlineStr"/>
-      <c r="G114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="1">
         <v>113</v>
       </c>
-      <c r="B115" t="n">
+      <c r="B115">
         <v>-41.40056282606434</v>
       </c>
-      <c r="C115" t="n">
+      <c r="C115">
         <v>-3.667038228457498</v>
       </c>
-      <c r="D115" t="n">
+      <c r="D115">
         <v>-22.24149857535357</v>
       </c>
-      <c r="E115" t="inlineStr"/>
-      <c r="F115" t="inlineStr"/>
-      <c r="G115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="1">
         <v>114</v>
       </c>
-      <c r="B116" t="n">
+      <c r="B116">
         <v>-41.40170373057749</v>
       </c>
-      <c r="C116" t="n">
+      <c r="C116">
         <v>-3.667455626506734</v>
       </c>
-      <c r="D116" t="n">
+      <c r="D116">
         <v>-22.24233263476087</v>
       </c>
-      <c r="E116" t="inlineStr"/>
-      <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="1">
         <v>115</v>
       </c>
-      <c r="B117" t="n">
+      <c r="B117">
         <v>-41.28759466539307</v>
       </c>
-      <c r="C117" t="n">
+      <c r="C117">
         <v>-3.62570901172984</v>
       </c>
-      <c r="D117" t="n">
+      <c r="D117">
         <v>-22.15891308634416</v>
       </c>
-      <c r="E117" t="inlineStr"/>
-      <c r="F117" t="inlineStr"/>
-      <c r="G117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="1">
         <v>116</v>
       </c>
-      <c r="B118" t="n">
+      <c r="B118">
         <v>-41.02564963179145</v>
       </c>
-      <c r="C118" t="n">
+      <c r="C118">
         <v>-3.529876849816897</v>
       </c>
-      <c r="D118" t="n">
+      <c r="D118">
         <v>-21.96741790252389</v>
       </c>
-      <c r="E118" t="inlineStr"/>
-      <c r="F118" t="inlineStr"/>
-      <c r="G118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="1">
         <v>117</v>
       </c>
-      <c r="B119" t="n">
+      <c r="B119">
         <v>-40.59342139265451</v>
       </c>
-      <c r="C119" t="n">
+      <c r="C119">
         <v>-3.371746855799481</v>
       </c>
-      <c r="D119" t="n">
+      <c r="D119">
         <v>-21.65143700772398</v>
       </c>
-      <c r="E119" t="inlineStr"/>
-      <c r="F119" t="inlineStr"/>
-      <c r="G119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="1">
         <v>118</v>
       </c>
-      <c r="B120" t="n">
+      <c r="B120">
         <v>-39.99713422495485</v>
       </c>
-      <c r="C120" t="n">
+      <c r="C120">
         <v>-3.153596171222999</v>
       </c>
-      <c r="D120" t="n">
+      <c r="D120">
         <v>-21.21552066596975</v>
       </c>
-      <c r="E120" t="inlineStr"/>
-      <c r="F120" t="inlineStr"/>
-      <c r="G120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="1">
         <v>119</v>
       </c>
-      <c r="B121" t="n">
+      <c r="B121">
         <v>-39.25901978707663</v>
       </c>
-      <c r="C121" t="n">
+      <c r="C121">
         <v>-2.88355821192883</v>
       </c>
-      <c r="D121" t="n">
+      <c r="D121">
         <v>-20.67592135378413</v>
       </c>
-      <c r="E121" t="inlineStr"/>
-      <c r="F121" t="inlineStr"/>
-      <c r="G121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="1">
         <v>120</v>
       </c>
-      <c r="B122" t="n">
+      <c r="B122">
         <v>-38.42798743763496</v>
       </c>
-      <c r="C122" t="n">
+      <c r="C122">
         <v>-2.57952638673414</v>
       </c>
-      <c r="D122" t="n">
+      <c r="D122">
         <v>-20.06839430763697</v>
       </c>
-      <c r="E122" t="inlineStr"/>
-      <c r="F122" t="inlineStr"/>
-      <c r="G122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="1">
         <v>121</v>
       </c>
-      <c r="B123" t="n">
+      <c r="B123">
         <v>-37.5624087176118</v>
       </c>
-      <c r="C123" t="n">
+      <c r="C123">
         <v>-2.262855828391698</v>
       </c>
-      <c r="D123" t="n">
+      <c r="D123">
         <v>-19.43561210206241</v>
       </c>
-      <c r="E123" t="inlineStr"/>
-      <c r="F123" t="inlineStr"/>
-      <c r="G123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="1">
         <v>122</v>
       </c>
-      <c r="B124" t="n">
+      <c r="B124">
         <v>-36.72106596031031</v>
       </c>
-      <c r="C124" t="n">
+      <c r="C124">
         <v>-1.955051957352786</v>
       </c>
-      <c r="D124" t="n">
+      <c r="D124">
         <v>-18.82054762173971</v>
       </c>
-      <c r="E124" t="inlineStr"/>
-      <c r="F124" t="inlineStr"/>
-      <c r="G124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="1">
         <v>123</v>
       </c>
-      <c r="B125" t="n">
+      <c r="B125">
         <v>-35.95888113956058</v>
       </c>
-      <c r="C125" t="n">
+      <c r="C125">
         <v>-1.676207887872322</v>
       </c>
-      <c r="D125" t="n">
+      <c r="D125">
         <v>-18.26335163162046</v>
       </c>
-      <c r="E125" t="inlineStr"/>
-      <c r="F125" t="inlineStr"/>
-      <c r="G125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="1">
         <v>124</v>
       </c>
-      <c r="B126" t="n">
+      <c r="B126">
         <v>-35.31465935265079</v>
       </c>
-      <c r="C126" t="n">
+      <c r="C126">
         <v>-1.440520401294981</v>
       </c>
-      <c r="D126" t="n">
+      <c r="D126">
         <v>-17.79239263763195</v>
       </c>
-      <c r="E126" t="inlineStr"/>
-      <c r="F126" t="inlineStr"/>
-      <c r="G126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="1">
         <v>125</v>
       </c>
-      <c r="B127" t="n">
+      <c r="B127">
         <v>-34.82499021854897</v>
       </c>
-      <c r="C127" t="n">
+      <c r="C127">
         <v>-1.261375749847294</v>
       </c>
-      <c r="D127" t="n">
+      <c r="D127">
         <v>-17.43441951801731</v>
       </c>
-      <c r="E127" t="inlineStr"/>
-      <c r="F127" t="inlineStr"/>
-      <c r="G127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="1">
         <v>126</v>
       </c>
-      <c r="B128" t="n">
+      <c r="B128">
         <v>-34.51030403715502</v>
       </c>
-      <c r="C128" t="n">
+      <c r="C128">
         <v>-1.146248325316794</v>
       </c>
-      <c r="D128" t="n">
+      <c r="D128">
         <v>-17.20436786434337</v>
       </c>
-      <c r="E128" t="inlineStr"/>
-      <c r="F128" t="inlineStr"/>
-      <c r="G128" t="inlineStr"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="1">
         <v>127</v>
       </c>
-      <c r="B129" t="n">
+      <c r="B129">
         <v>-34.38998993414518</v>
       </c>
-      <c r="C129" t="n">
+      <c r="C129">
         <v>-1.102231607604997</v>
       </c>
-      <c r="D129" t="n">
+      <c r="D129">
         <v>-17.11641211669946</v>
       </c>
-      <c r="E129" t="inlineStr"/>
-      <c r="F129" t="inlineStr"/>
-      <c r="G129" t="inlineStr"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="1">
         <v>128</v>
       </c>
-      <c r="B130" t="n">
+      <c r="B130">
         <v>-34.4708533497956</v>
       </c>
-      <c r="C130" t="n">
+      <c r="C130">
         <v>-1.13181535590095</v>
       </c>
-      <c r="D130" t="n">
+      <c r="D130">
         <v>-17.1755273991364</v>
       </c>
-      <c r="E130" t="inlineStr"/>
-      <c r="F130" t="inlineStr"/>
-      <c r="G130" t="inlineStr"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="1">
         <v>129</v>
       </c>
-      <c r="B131" t="n">
+      <c r="B131">
         <v>-34.75684859230907</v>
       </c>
-      <c r="C131" t="n">
+      <c r="C131">
         <v>-1.236446247390054</v>
       </c>
-      <c r="D131" t="n">
+      <c r="D131">
         <v>-17.38460451269651</v>
       </c>
-      <c r="E131" t="inlineStr"/>
-      <c r="F131" t="inlineStr"/>
-      <c r="G131" t="inlineStr"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="1">
         <v>130</v>
       </c>
-      <c r="B132" t="n">
+      <c r="B132">
         <v>-35.24011114705498</v>
       </c>
-      <c r="C132" t="n">
+      <c r="C132">
         <v>-1.413247062263703</v>
       </c>
-      <c r="D132" t="n">
+      <c r="D132">
         <v>-17.73789409594266</v>
       </c>
-      <c r="E132" t="inlineStr"/>
-      <c r="F132" t="inlineStr"/>
-      <c r="G132" t="inlineStr"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="1">
         <v>131</v>
       </c>
-      <c r="B133" t="n">
+      <c r="B133">
         <v>-35.902722317823</v>
       </c>
-      <c r="C133" t="n">
+      <c r="C133">
         <v>-1.655662274834355</v>
       </c>
-      <c r="D133" t="n">
+      <c r="D133">
         <v>-18.22229666774539</v>
       </c>
-      <c r="E133" t="inlineStr"/>
-      <c r="F133" t="inlineStr"/>
-      <c r="G133" t="inlineStr"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="1">
         <v>132</v>
       </c>
-      <c r="B134" t="n">
+      <c r="B134">
         <v>-36.72228760853401</v>
       </c>
-      <c r="C134" t="n">
+      <c r="C134">
         <v>-1.955498895356401</v>
       </c>
-      <c r="D134" t="n">
+      <c r="D134">
         <v>-18.8214407089189</v>
       </c>
-      <c r="E134" t="inlineStr"/>
-      <c r="F134" t="inlineStr"/>
-      <c r="G134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="1">
         <v>133</v>
       </c>
-      <c r="B135" t="n">
+      <c r="B135">
         <v>-37.66128518276887</v>
       </c>
-      <c r="C135" t="n">
+      <c r="C135">
         <v>-2.299029621374244</v>
       </c>
-      <c r="D135" t="n">
+      <c r="D135">
         <v>-19.50789584270223</v>
       </c>
-      <c r="E135" t="inlineStr"/>
-      <c r="F135" t="inlineStr"/>
-      <c r="G135" t="inlineStr"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="1">
         <v>134</v>
       </c>
-      <c r="B136" t="n">
+      <c r="B136">
         <v>-38.68665034369048</v>
       </c>
-      <c r="C136" t="n">
+      <c r="C136">
         <v>-2.674157787655004</v>
       </c>
-      <c r="D136" t="n">
+      <c r="D136">
         <v>-20.25749008876911</v>
       </c>
-      <c r="E136" t="inlineStr"/>
-      <c r="F136" t="inlineStr"/>
-      <c r="G136" t="inlineStr"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="1">
         <v>135</v>
       </c>
-      <c r="B137" t="n">
+      <c r="B137">
         <v>-39.74837396242209</v>
       </c>
-      <c r="C137" t="n">
+      <c r="C137">
         <v>-3.062587636230879</v>
       </c>
-      <c r="D137" t="n">
+      <c r="D137">
         <v>-21.03366422247888</v>
       </c>
-      <c r="E137" t="inlineStr"/>
-      <c r="F137" t="inlineStr"/>
-      <c r="G137" t="inlineStr"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="1">
         <v>136</v>
       </c>
-      <c r="B138" t="n">
+      <c r="B138">
         <v>-40.80227637076179</v>
       </c>
-      <c r="C138" t="n">
+      <c r="C138">
         <v>-3.448156107783008</v>
       </c>
-      <c r="D138" t="n">
+      <c r="D138">
         <v>-21.80412065235934</v>
       </c>
-      <c r="E138" t="inlineStr"/>
-      <c r="F138" t="inlineStr"/>
-      <c r="G138" t="inlineStr"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="1">
         <v>137</v>
       </c>
-      <c r="B139" t="n">
+      <c r="B139">
         <v>-41.80189274152387</v>
       </c>
-      <c r="C139" t="n">
+      <c r="C139">
         <v>-3.813864121317591</v>
       </c>
-      <c r="D139" t="n">
+      <c r="D139">
         <v>-22.53489121913385</v>
       </c>
-      <c r="E139" t="inlineStr"/>
-      <c r="F139" t="inlineStr"/>
-      <c r="G139" t="inlineStr"/>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="1">
         <v>138</v>
       </c>
-      <c r="B140" t="n">
+      <c r="B140">
         <v>-42.70576266329203</v>
       </c>
-      <c r="C140" t="n">
+      <c r="C140">
         <v>-4.14454345316115</v>
       </c>
-      <c r="D140" t="n">
+      <c r="D140">
         <v>-23.19566624677508</v>
       </c>
-      <c r="E140" t="inlineStr"/>
-      <c r="F140" t="inlineStr"/>
-      <c r="G140" t="inlineStr"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="1">
         <v>139</v>
       </c>
-      <c r="B141" t="n">
+      <c r="B141">
         <v>-43.48609559042654</v>
       </c>
-      <c r="C141" t="n">
+      <c r="C141">
         <v>-4.430026977666083</v>
       </c>
-      <c r="D141" t="n">
+      <c r="D141">
         <v>-23.76612942856567</v>
       </c>
-      <c r="E141" t="inlineStr"/>
-      <c r="F141" t="inlineStr"/>
-      <c r="G141" t="inlineStr"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="1">
         <v>140</v>
       </c>
-      <c r="B142" t="n">
+      <c r="B142">
         <v>-44.11440366768604</v>
       </c>
-      <c r="C142" t="n">
+      <c r="C142">
         <v>-4.659892459608044</v>
       </c>
-      <c r="D142" t="n">
+      <c r="D142">
         <v>-24.22545468889316</v>
       </c>
-      <c r="E142" t="inlineStr"/>
-      <c r="F142" t="inlineStr"/>
-      <c r="G142" t="inlineStr"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="1">
         <v>141</v>
       </c>
-      <c r="B143" t="n">
+      <c r="B143">
         <v>-44.58444308046737</v>
       </c>
-      <c r="C143" t="n">
+      <c r="C143">
         <v>-4.831855609631461</v>
       </c>
-      <c r="D143" t="n">
+      <c r="D143">
         <v>-24.56907748072749</v>
       </c>
-      <c r="E143" t="inlineStr"/>
-      <c r="F143" t="inlineStr"/>
-      <c r="G143" t="inlineStr"/>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="1">
         <v>142</v>
       </c>
-      <c r="B144" t="n">
+      <c r="B144">
         <v>-44.89183470357261</v>
       </c>
-      <c r="C144" t="n">
+      <c r="C144">
         <v>-4.944314331948389</v>
       </c>
-      <c r="D144" t="n">
+      <c r="D144">
         <v>-24.79379644012898</v>
       </c>
-      <c r="E144" t="inlineStr"/>
-      <c r="F144" t="inlineStr"/>
-      <c r="G144" t="inlineStr"/>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="1">
         <v>143</v>
       </c>
-      <c r="B145" t="n">
+      <c r="B145">
         <v>-45.0451561024963</v>
       </c>
-      <c r="C145" t="n">
+      <c r="C145">
         <v>-5.000406714859222</v>
       </c>
-      <c r="D145" t="n">
+      <c r="D145">
         <v>-24.9058822050957</v>
       </c>
-      <c r="E145" t="inlineStr"/>
-      <c r="F145" t="inlineStr"/>
-      <c r="G145" t="inlineStr"/>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="1">
         <v>144</v>
       </c>
-      <c r="B146" t="n">
+      <c r="B146">
         <v>-45.06201433402696</v>
       </c>
-      <c r="C146" t="n">
+      <c r="C146">
         <v>-5.006574271278975</v>
       </c>
-      <c r="D146" t="n">
+      <c r="D146">
         <v>-24.91820643244012</v>
       </c>
-      <c r="E146" t="inlineStr"/>
-      <c r="F146" t="inlineStr"/>
-      <c r="G146" t="inlineStr"/>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="1">
         <v>145</v>
       </c>
-      <c r="B147" t="n">
+      <c r="B147">
         <v>-44.95846542584184</v>
       </c>
-      <c r="C147" t="n">
+      <c r="C147">
         <v>-4.968691072660303</v>
       </c>
-      <c r="D147" t="n">
+      <c r="D147">
         <v>-24.84250689756192</v>
       </c>
-      <c r="E147" t="inlineStr"/>
-      <c r="F147" t="inlineStr"/>
-      <c r="G147" t="inlineStr"/>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="1">
         <v>146</v>
       </c>
-      <c r="B148" t="n">
+      <c r="B148">
         <v>-44.76123063052448</v>
       </c>
-      <c r="C148" t="n">
+      <c r="C148">
         <v>-4.896533045535936</v>
       </c>
-      <c r="D148" t="n">
+      <c r="D148">
         <v>-24.69831819939981</v>
       </c>
-      <c r="E148" t="inlineStr"/>
-      <c r="F148" t="inlineStr"/>
-      <c r="G148" t="inlineStr"/>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="1">
         <v>147</v>
       </c>
-      <c r="B149" t="n">
+      <c r="B149">
         <v>-44.49459693244103</v>
       </c>
-      <c r="C149" t="n">
+      <c r="C149">
         <v>-4.798985543394552</v>
       </c>
-      <c r="D149" t="n">
+      <c r="D149">
         <v>-24.50339536263086</v>
       </c>
-      <c r="E149" t="inlineStr"/>
-      <c r="F149" t="inlineStr"/>
-      <c r="G149" t="inlineStr"/>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="1">
         <v>148</v>
       </c>
-      <c r="B150" t="n">
+      <c r="B150">
         <v>-44.18729360527576</v>
       </c>
-      <c r="C150" t="n">
+      <c r="C150">
         <v>-4.686559124002779</v>
       </c>
-      <c r="D150" t="n">
+      <c r="D150">
         <v>-24.27874095206628</v>
       </c>
-      <c r="E150" t="inlineStr"/>
-      <c r="F150" t="inlineStr"/>
-      <c r="G150" t="inlineStr"/>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="1">
         <v>149</v>
       </c>
-      <c r="B151" t="n">
+      <c r="B151">
         <v>-43.87589884804886</v>
       </c>
-      <c r="C151" t="n">
+      <c r="C151">
         <v>-4.57263586161792</v>
       </c>
-      <c r="D151" t="n">
+      <c r="D151">
         <v>-24.05109549738469</v>
       </c>
-      <c r="E151" t="inlineStr"/>
-      <c r="F151" t="inlineStr"/>
-      <c r="G151" t="inlineStr"/>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="1">
         <v>150</v>
       </c>
-      <c r="B152" t="n">
+      <c r="B152">
         <v>-43.59220667493449</v>
       </c>
-      <c r="C152" t="n">
+      <c r="C152">
         <v>-4.468847544299874</v>
       </c>
-      <c r="D152" t="n">
+      <c r="D152">
         <v>-23.84370204505634</v>
       </c>
-      <c r="E152" t="inlineStr"/>
-      <c r="F152" t="inlineStr"/>
-      <c r="G152" t="inlineStr"/>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="1">
         <v>151</v>
       </c>
-      <c r="B153" t="n">
+      <c r="B153">
         <v>-43.37041058688875</v>
       </c>
-      <c r="C153" t="n">
+      <c r="C153">
         <v>-4.387703808421371</v>
       </c>
-      <c r="D153" t="n">
+      <c r="D153">
         <v>-23.68155778880933</v>
       </c>
-      <c r="E153" t="inlineStr"/>
-      <c r="F153" t="inlineStr"/>
-      <c r="G153" t="inlineStr"/>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="1">
         <v>152</v>
       </c>
-      <c r="B154" t="n">
+      <c r="B154">
         <v>-43.22928477411846</v>
       </c>
-      <c r="C154" t="n">
+      <c r="C154">
         <v>-4.336073160748676</v>
       </c>
-      <c r="D154" t="n">
+      <c r="D154">
         <v>-23.57838761953126</v>
       </c>
-      <c r="E154" t="inlineStr"/>
-      <c r="F154" t="inlineStr"/>
-      <c r="G154" t="inlineStr"/>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="1">
         <v>153</v>
       </c>
-      <c r="B155" t="n">
+      <c r="B155">
         <v>-43.17836048868084</v>
       </c>
-      <c r="C155" t="n">
+      <c r="C155">
         <v>-4.317442594250588</v>
       </c>
-      <c r="D155" t="n">
+      <c r="D155">
         <v>-23.54115936875395</v>
       </c>
-      <c r="E155" t="inlineStr"/>
-      <c r="F155" t="inlineStr"/>
-      <c r="G155" t="inlineStr"/>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="1">
         <v>154</v>
       </c>
-      <c r="B156" t="n">
+      <c r="B156">
         <v>-43.21919289558289</v>
       </c>
-      <c r="C156" t="n">
+      <c r="C156">
         <v>-4.332381063500148</v>
       </c>
-      <c r="D156" t="n">
+      <c r="D156">
         <v>-23.57100994144098</v>
       </c>
-      <c r="E156" t="inlineStr"/>
-      <c r="F156" t="inlineStr"/>
-      <c r="G156" t="inlineStr"/>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="1">
         <v>155</v>
       </c>
-      <c r="B157" t="n">
+      <c r="B157">
         <v>-43.33751947569391</v>
       </c>
-      <c r="C157" t="n">
+      <c r="C157">
         <v>-4.375670649211663</v>
       </c>
-      <c r="D157" t="n">
+      <c r="D157">
         <v>-23.65751270844378</v>
       </c>
-      <c r="E157" t="inlineStr"/>
-      <c r="F157" t="inlineStr"/>
-      <c r="G157" t="inlineStr"/>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="1">
         <v>156</v>
       </c>
-      <c r="B158" t="n">
+      <c r="B158">
         <v>-43.52036406835343</v>
       </c>
-      <c r="C158" t="n">
+      <c r="C158">
         <v>-4.442564044240872</v>
       </c>
-      <c r="D158" t="n">
+      <c r="D158">
         <v>-23.79118143428465</v>
       </c>
-      <c r="E158" t="inlineStr"/>
-      <c r="F158" t="inlineStr"/>
-      <c r="G158" t="inlineStr"/>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="1">
         <v>157</v>
       </c>
-      <c r="B159" t="n">
+      <c r="B159">
         <v>-43.74349878141915</v>
       </c>
-      <c r="C159" t="n">
+      <c r="C159">
         <v>-4.524197513892499</v>
       </c>
-      <c r="D159" t="n">
+      <c r="D159">
         <v>-23.95430429371701</v>
       </c>
-      <c r="E159" t="inlineStr"/>
-      <c r="F159" t="inlineStr"/>
-      <c r="G159" t="inlineStr"/>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="1">
         <v>158</v>
       </c>
-      <c r="B160" t="n">
+      <c r="B160">
         <v>-43.99227279880652</v>
       </c>
-      <c r="C160" t="n">
+      <c r="C160">
         <v>-4.615211081075669</v>
       </c>
-      <c r="D160" t="n">
+      <c r="D160">
         <v>-24.13617079270836</v>
       </c>
-      <c r="E160" t="inlineStr"/>
-      <c r="F160" t="inlineStr"/>
-      <c r="G160" t="inlineStr"/>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="1">
         <v>159</v>
       </c>
-      <c r="B161" t="n">
+      <c r="B161">
         <v>-44.25133838780187</v>
       </c>
-      <c r="C161" t="n">
+      <c r="C161">
         <v>-4.709989802891144</v>
       </c>
-      <c r="D161" t="n">
+      <c r="D161">
         <v>-24.32556095561412</v>
       </c>
-      <c r="E161" t="inlineStr"/>
-      <c r="F161" t="inlineStr"/>
-      <c r="G161" t="inlineStr"/>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="1">
         <v>160</v>
       </c>
-      <c r="B162" t="n">
+      <c r="B162">
         <v>-44.50792023511529</v>
       </c>
-      <c r="C162" t="n">
+      <c r="C162">
         <v>-4.803859851876525</v>
       </c>
-      <c r="D162" t="n">
+      <c r="D162">
         <v>-24.51313537663159</v>
       </c>
-      <c r="E162" t="inlineStr"/>
-      <c r="F162" t="inlineStr"/>
-      <c r="G162" t="inlineStr"/>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" s="1">
         <v>161</v>
       </c>
-      <c r="B163" t="n">
+      <c r="B163">
         <v>-44.75785477237019</v>
       </c>
-      <c r="C163" t="n">
+      <c r="C163">
         <v>-4.89529799335423</v>
       </c>
-      <c r="D163" t="n">
+      <c r="D163">
         <v>-24.69585027485504</v>
       </c>
-      <c r="E163" t="inlineStr"/>
-      <c r="F163" t="inlineStr"/>
-      <c r="G163" t="inlineStr"/>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="1">
         <v>162</v>
       </c>
-      <c r="B164" t="n">
+      <c r="B164">
         <v>-44.99379225578679</v>
       </c>
-      <c r="C164" t="n">
+      <c r="C164">
         <v>-4.981615335589083</v>
       </c>
-      <c r="D164" t="n">
+      <c r="D164">
         <v>-24.86833261260252</v>
       </c>
-      <c r="E164" t="inlineStr"/>
-      <c r="F164" t="inlineStr"/>
-      <c r="G164" t="inlineStr"/>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="1">
         <v>163</v>
       </c>
-      <c r="B165" t="n">
+      <c r="B165">
         <v>-45.22268188574864</v>
       </c>
-      <c r="C165" t="n">
+      <c r="C165">
         <v>-5.065354232170174</v>
       </c>
-      <c r="D165" t="n">
+      <c r="D165">
         <v>-25.03566260989788</v>
       </c>
-      <c r="E165" t="inlineStr"/>
-      <c r="F165" t="inlineStr"/>
-      <c r="G165" t="inlineStr"/>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="1">
         <v>164</v>
       </c>
-      <c r="B166" t="n">
+      <c r="B166">
         <v>-45.44484822021583</v>
       </c>
-      <c r="C166" t="n">
+      <c r="C166">
         <v>-5.146633422096122</v>
       </c>
-      <c r="D166" t="n">
+      <c r="D166">
         <v>-25.1980775351687</v>
       </c>
-      <c r="E166" t="inlineStr"/>
-      <c r="F166" t="inlineStr"/>
-      <c r="G166" t="inlineStr"/>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" s="1">
         <v>165</v>
       </c>
-      <c r="B167" t="n">
+      <c r="B167">
         <v>-45.67066069755892</v>
       </c>
-      <c r="C167" t="n">
+      <c r="C167">
         <v>-5.229246547426898</v>
       </c>
-      <c r="D167" t="n">
+      <c r="D167">
         <v>-25.36315797690552</v>
       </c>
-      <c r="E167" t="inlineStr"/>
-      <c r="F167" t="inlineStr"/>
-      <c r="G167" t="inlineStr"/>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" s="1">
         <v>166</v>
       </c>
-      <c r="B168" t="n">
+      <c r="B168">
         <v>-45.91057636064422</v>
       </c>
-      <c r="C168" t="n">
+      <c r="C168">
         <v>-5.317019300183905</v>
       </c>
-      <c r="D168" t="n">
+      <c r="D168">
         <v>-25.53854856695484</v>
       </c>
-      <c r="E168" t="inlineStr"/>
-      <c r="F168" t="inlineStr"/>
-      <c r="G168" t="inlineStr"/>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" s="1">
         <v>167</v>
       </c>
-      <c r="B169" t="n">
+      <c r="B169">
         <v>-46.1692629061353</v>
       </c>
-      <c r="C169" t="n">
+      <c r="C169">
         <v>-5.411659349553585</v>
       </c>
-      <c r="D169" t="n">
+      <c r="D169">
         <v>-25.72766162972044</v>
       </c>
-      <c r="E169" t="inlineStr"/>
-      <c r="F169" t="inlineStr"/>
-      <c r="G169" t="inlineStr"/>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" s="1">
         <v>168</v>
       </c>
-      <c r="B170" t="n">
+      <c r="B170">
         <v>-46.45555979184411</v>
       </c>
-      <c r="C170" t="n">
+      <c r="C170">
         <v>-5.51640059671212</v>
       </c>
-      <c r="D170" t="n">
+      <c r="D170">
         <v>-25.936959259846</v>
       </c>
-      <c r="E170" t="inlineStr"/>
-      <c r="F170" t="inlineStr"/>
-      <c r="G170" t="inlineStr"/>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" s="1">
         <v>169</v>
       </c>
-      <c r="B171" t="n">
+      <c r="B171">
         <v>-46.76430923240268</v>
       </c>
-      <c r="C171" t="n">
+      <c r="C171">
         <v>-5.629356074322502</v>
       </c>
-      <c r="D171" t="n">
+      <c r="D171">
         <v>-26.16267085308079</v>
       </c>
-      <c r="E171" t="inlineStr"/>
-      <c r="F171" t="inlineStr"/>
-      <c r="G171" t="inlineStr"/>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" s="1">
         <v>170</v>
       </c>
-      <c r="B172" t="n">
+      <c r="B172">
         <v>-47.10367649258128</v>
       </c>
-      <c r="C172" t="n">
+      <c r="C172">
         <v>-5.753513031139815</v>
       </c>
-      <c r="D172" t="n">
+      <c r="D172">
         <v>-26.41076563455816</v>
       </c>
-      <c r="E172" t="inlineStr"/>
-      <c r="F172" t="inlineStr"/>
-      <c r="G172" t="inlineStr"/>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" s="1">
         <v>171</v>
       </c>
-      <c r="B173" t="n">
+      <c r="B173">
         <v>-47.4700917338995</v>
       </c>
-      <c r="C173" t="n">
+      <c r="C173">
         <v>-5.887565447597463</v>
       </c>
-      <c r="D173" t="n">
+      <c r="D173">
         <v>-26.67863387021821</v>
       </c>
-      <c r="E173" t="inlineStr"/>
-      <c r="F173" t="inlineStr"/>
-      <c r="G173" t="inlineStr"/>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" s="1">
         <v>172</v>
       </c>
-      <c r="B174" t="n">
+      <c r="B174">
         <v>-47.86018012724212</v>
       </c>
-      <c r="C174" t="n">
+      <c r="C174">
         <v>-6.030278647985996</v>
       </c>
-      <c r="D174" t="n">
+      <c r="D174">
         <v>-26.9638083877962</v>
       </c>
-      <c r="E174" t="inlineStr"/>
-      <c r="F174" t="inlineStr"/>
-      <c r="G174" t="inlineStr"/>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" s="1">
         <v>173</v>
       </c>
-      <c r="B175" t="n">
+      <c r="B175">
         <v>-48.27311514332717</v>
       </c>
-      <c r="C175" t="n">
+      <c r="C175">
         <v>-6.181350247920084</v>
       </c>
-      <c r="D175" t="n">
+      <c r="D175">
         <v>-27.26568495221807</v>
       </c>
-      <c r="E175" t="inlineStr"/>
-      <c r="F175" t="inlineStr"/>
-      <c r="G175" t="inlineStr"/>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" s="1">
         <v>174</v>
       </c>
-      <c r="B176" t="n">
+      <c r="B176">
         <v>-48.70210715952548</v>
       </c>
-      <c r="C176" t="n">
+      <c r="C176">
         <v>-6.338296275070952</v>
       </c>
-      <c r="D176" t="n">
+      <c r="D176">
         <v>-27.57930000293995</v>
       </c>
-      <c r="E176" t="inlineStr"/>
-      <c r="F176" t="inlineStr"/>
-      <c r="G176" t="inlineStr"/>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" s="1">
         <v>175</v>
       </c>
-      <c r="B177" t="n">
+      <c r="B177">
         <v>-49.15407633617338</v>
       </c>
-      <c r="C177" t="n">
+      <c r="C177">
         <v>-6.503648458773938</v>
       </c>
-      <c r="D177" t="n">
+      <c r="D177">
         <v>-27.90971253022958</v>
       </c>
-      <c r="E177" t="inlineStr"/>
-      <c r="F177" t="inlineStr"/>
-      <c r="G177" t="inlineStr"/>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" s="1">
         <v>176</v>
       </c>
-      <c r="B178" t="n">
+      <c r="B178">
         <v>-49.61867837161819</v>
       </c>
-      <c r="C178" t="n">
+      <c r="C178">
         <v>-6.673622353196164</v>
       </c>
-      <c r="D178" t="n">
+      <c r="D178">
         <v>-28.24936032181962</v>
       </c>
-      <c r="E178" t="inlineStr"/>
-      <c r="F178" t="inlineStr"/>
-      <c r="G178" t="inlineStr"/>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" s="1">
         <v>177</v>
       </c>
-      <c r="B179" t="n">
+      <c r="B179">
         <v>-50.09274412491438</v>
       </c>
-      <c r="C179" t="n">
+      <c r="C179">
         <v>-6.84705853330849</v>
       </c>
-      <c r="D179" t="n">
+      <c r="D179">
         <v>-28.59592657399146</v>
       </c>
-      <c r="E179" t="inlineStr"/>
-      <c r="F179" t="inlineStr"/>
-      <c r="G179" t="inlineStr"/>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" s="1">
         <v>178</v>
       </c>
-      <c r="B180" t="n">
+      <c r="B180">
         <v>-50.57164289913268</v>
       </c>
-      <c r="C180" t="n">
+      <c r="C180">
         <v>-7.022262866216726</v>
       </c>
-      <c r="D180" t="n">
+      <c r="D180">
         <v>-28.94602601103482</v>
       </c>
-      <c r="E180" t="inlineStr"/>
-      <c r="F180" t="inlineStr"/>
-      <c r="G180" t="inlineStr"/>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" s="1">
         <v>179</v>
       </c>
-      <c r="B181" t="n">
+      <c r="B181">
         <v>-51.04566550590743</v>
       </c>
-      <c r="C181" t="n">
+      <c r="C181">
         <v>-7.195683261244785</v>
       </c>
-      <c r="D181" t="n">
+      <c r="D181">
         <v>-29.29256072089818</v>
       </c>
-      <c r="E181" t="inlineStr"/>
-      <c r="F181" t="inlineStr"/>
-      <c r="G181" t="inlineStr"/>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" s="1">
         <v>180</v>
       </c>
-      <c r="B182" t="n">
+      <c r="B182">
         <v>-51.51594617792786</v>
       </c>
-      <c r="C182" t="n">
+      <c r="C182">
         <v>-7.367734675566043</v>
       </c>
-      <c r="D182" t="n">
+      <c r="D182">
         <v>-29.63635988554517</v>
       </c>
-      <c r="E182" t="inlineStr"/>
-      <c r="F182" t="inlineStr"/>
-      <c r="G182" t="inlineStr"/>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" s="1">
         <v>181</v>
       </c>
-      <c r="B183" t="n">
+      <c r="B183">
         <v>-51.97395596395979</v>
       </c>
-      <c r="C183" t="n">
+      <c r="C183">
         <v>-7.535296806327706</v>
       </c>
-      <c r="D183" t="n">
+      <c r="D183">
         <v>-29.97118840648232</v>
       </c>
-      <c r="E183" t="inlineStr"/>
-      <c r="F183" t="inlineStr"/>
-      <c r="G183" t="inlineStr"/>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" s="1">
         <v>182</v>
       </c>
-      <c r="B184" t="n">
+      <c r="B184">
         <v>-52.43483102258315</v>
       </c>
-      <c r="C184" t="n">
+      <c r="C184">
         <v>-7.703907192378394</v>
       </c>
-      <c r="D184" t="n">
+      <c r="D184">
         <v>-30.30811158786805</v>
       </c>
-      <c r="E184" t="inlineStr"/>
-      <c r="F184" t="inlineStr"/>
-      <c r="G184" t="inlineStr"/>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" s="1">
         <v>183</v>
       </c>
-      <c r="B185" t="n">
+      <c r="B185">
         <v>-52.90081074394673</v>
       </c>
-      <c r="C185" t="n">
+      <c r="C185">
         <v>-7.874385110939646</v>
       </c>
-      <c r="D185" t="n">
+      <c r="D185">
         <v>-30.64876653815331</v>
       </c>
-      <c r="E185" t="inlineStr"/>
-      <c r="F185" t="inlineStr"/>
-      <c r="G185" t="inlineStr"/>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" s="1">
         <v>184</v>
       </c>
-      <c r="B186" t="n">
+      <c r="B186">
         <v>-53.36389753790035</v>
       </c>
-      <c r="C186" t="n">
+      <c r="C186">
         <v>-8.043804656741768</v>
       </c>
-      <c r="D186" t="n">
+      <c r="D186">
         <v>-30.9873066109067</v>
       </c>
-      <c r="E186" t="inlineStr"/>
-      <c r="F186" t="inlineStr"/>
-      <c r="G186" t="inlineStr"/>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" s="1">
         <v>185</v>
       </c>
-      <c r="B187" t="n">
+      <c r="B187">
         <v>-53.8091054724416</v>
       </c>
-      <c r="C187" t="n">
+      <c r="C187">
         <v>-8.206683251083703</v>
       </c>
-      <c r="D187" t="n">
+      <c r="D187">
         <v>-31.3127763252624</v>
       </c>
-      <c r="E187" t="inlineStr"/>
-      <c r="F187" t="inlineStr"/>
-      <c r="G187" t="inlineStr"/>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" s="1">
         <v>186</v>
       </c>
-      <c r="B188" t="n">
+      <c r="B188">
         <v>-54.20502042884927</v>
       </c>
-      <c r="C188" t="n">
+      <c r="C188">
         <v>-8.351528090035362</v>
       </c>
-      <c r="D188" t="n">
+      <c r="D188">
         <v>-31.60221035770823</v>
       </c>
-      <c r="E188" t="inlineStr"/>
-      <c r="F188" t="inlineStr"/>
-      <c r="G188" t="inlineStr"/>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" s="1">
         <v>187</v>
       </c>
-      <c r="B189" t="n">
+      <c r="B189">
         <v>-54.53096234551668</v>
       </c>
-      <c r="C189" t="n">
+      <c r="C189">
         <v>-8.470773406897491</v>
       </c>
-      <c r="D189" t="n">
+      <c r="D189">
         <v>-31.84049052812703</v>
       </c>
-      <c r="E189" t="inlineStr"/>
-      <c r="F189" t="inlineStr"/>
-      <c r="G189" t="inlineStr"/>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" s="1">
         <v>188</v>
       </c>
-      <c r="B190" t="n">
+      <c r="B190">
         <v>-54.76077635833388</v>
       </c>
-      <c r="C190" t="n">
+      <c r="C190">
         <v>-8.554850487433608</v>
       </c>
-      <c r="D190" t="n">
+      <c r="D190">
         <v>-32.00849629645104</v>
       </c>
-      <c r="E190" t="inlineStr"/>
-      <c r="F190" t="inlineStr"/>
-      <c r="G190" t="inlineStr"/>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" s="1">
         <v>189</v>
       </c>
-      <c r="B191" t="n">
+      <c r="B191">
         <v>-54.8705780505413</v>
       </c>
-      <c r="C191" t="n">
+      <c r="C191">
         <v>-8.595021256855185</v>
       </c>
-      <c r="D191" t="n">
+      <c r="D191">
         <v>-32.08876693546233</v>
       </c>
-      <c r="E191" t="inlineStr"/>
-      <c r="F191" t="inlineStr"/>
-      <c r="G191" t="inlineStr"/>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" s="1">
         <v>190</v>
       </c>
-      <c r="B192" t="n">
+      <c r="B192">
         <v>-54.8483351083561</v>
       </c>
-      <c r="C192" t="n">
+      <c r="C192">
         <v>-8.586883712853664</v>
       </c>
-      <c r="D192" t="n">
+      <c r="D192">
         <v>-32.07250620990516</v>
       </c>
-      <c r="E192" t="inlineStr"/>
-      <c r="F192" t="inlineStr"/>
-      <c r="G192" t="inlineStr"/>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" s="1">
         <v>191</v>
       </c>
-      <c r="B193" t="n">
+      <c r="B193">
         <v>-54.675212445412</v>
       </c>
-      <c r="C193" t="n">
+      <c r="C193">
         <v>-8.523547069902492</v>
       </c>
-      <c r="D193" t="n">
+      <c r="D193">
         <v>-31.9459447106925</v>
       </c>
-      <c r="E193" t="inlineStr"/>
-      <c r="F193" t="inlineStr"/>
-      <c r="G193" t="inlineStr"/>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" s="1">
         <v>192</v>
       </c>
-      <c r="B194" t="n">
+      <c r="B194">
         <v>-54.34458528104521</v>
       </c>
-      <c r="C194" t="n">
+      <c r="C194">
         <v>-8.402587662836188</v>
       </c>
-      <c r="D194" t="n">
+      <c r="D194">
         <v>-31.7042393851673</v>
       </c>
-      <c r="E194" t="inlineStr"/>
-      <c r="F194" t="inlineStr"/>
-      <c r="G194" t="inlineStr"/>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" s="1">
         <v>193</v>
       </c>
-      <c r="B195" t="n">
+      <c r="B195">
         <v>-53.84534276701716</v>
       </c>
-      <c r="C195" t="n">
+      <c r="C195">
         <v>-8.219940606007766</v>
       </c>
-      <c r="D195" t="n">
+      <c r="D195">
         <v>-31.33926763639926</v>
       </c>
-      <c r="E195" t="inlineStr"/>
-      <c r="F195" t="inlineStr"/>
-      <c r="G195" t="inlineStr"/>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" s="1">
         <v>194</v>
       </c>
-      <c r="B196" t="n">
+      <c r="B196">
         <v>-53.17767969381145</v>
       </c>
-      <c r="C196" t="n">
+      <c r="C196">
         <v>-7.975677163196893</v>
       </c>
-      <c r="D196" t="n">
+      <c r="D196">
         <v>-30.85117186616995</v>
       </c>
-      <c r="E196" t="inlineStr"/>
-      <c r="F196" t="inlineStr"/>
-      <c r="G196" t="inlineStr"/>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" s="1">
         <v>195</v>
       </c>
-      <c r="B197" t="n">
+      <c r="B197">
         <v>-52.33737762145391</v>
       </c>
-      <c r="C197" t="n">
+      <c r="C197">
         <v>-7.668254025041817</v>
       </c>
-      <c r="D197" t="n">
+      <c r="D197">
         <v>-30.23686817963633</v>
       </c>
-      <c r="E197" t="inlineStr"/>
-      <c r="F197" t="inlineStr"/>
-      <c r="G197" t="inlineStr"/>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" s="1">
         <v>196</v>
       </c>
-      <c r="B198" t="n">
+      <c r="B198">
         <v>-51.34728816473627</v>
       </c>
-      <c r="C198" t="n">
+      <c r="C198">
         <v>-7.306031417421161</v>
       </c>
-      <c r="D198" t="n">
+      <c r="D198">
         <v>-29.51306227308499</v>
       </c>
-      <c r="E198" t="inlineStr"/>
-      <c r="F198" t="inlineStr"/>
-      <c r="G198" t="inlineStr"/>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" s="1">
         <v>197</v>
       </c>
-      <c r="B199" t="n">
+      <c r="B199">
         <v>-50.20021752645199</v>
       </c>
-      <c r="C199" t="n">
+      <c r="C199">
         <v>-6.886377501398378</v>
       </c>
-      <c r="D199" t="n">
+      <c r="D199">
         <v>-28.67449511373531</v>
       </c>
-      <c r="E199" t="inlineStr"/>
-      <c r="F199" t="inlineStr"/>
-      <c r="G199" t="inlineStr"/>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" s="1">
         <v>198</v>
       </c>
-      <c r="B200" t="n">
+      <c r="B200">
         <v>-48.97401327451627</v>
       </c>
-      <c r="C200" t="n">
+      <c r="C200">
         <v>-6.43777268231044</v>
       </c>
-      <c r="D200" t="n">
+      <c r="D200">
         <v>-27.77807724546329</v>
       </c>
-      <c r="E200" t="inlineStr"/>
-      <c r="F200" t="inlineStr"/>
-      <c r="G200" t="inlineStr"/>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" s="1">
         <v>199</v>
       </c>
-      <c r="B201" t="n">
+      <c r="B201">
         <v>-47.6112473016108</v>
       </c>
-      <c r="C201" t="n">
+      <c r="C201">
         <v>-5.939206981066638</v>
       </c>
-      <c r="D201" t="n">
+      <c r="D201">
         <v>-26.78182579187624</v>
       </c>
-      <c r="E201" t="inlineStr"/>
-      <c r="F201" t="inlineStr"/>
-      <c r="G201" t="inlineStr"/>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" s="1">
         <v>200</v>
       </c>
-      <c r="B202" t="n">
+      <c r="B202">
         <v>-46.27533808481444</v>
       </c>
-      <c r="C202" t="n">
+      <c r="C202">
         <v>-5.450466780098665</v>
       </c>
-      <c r="D202" t="n">
+      <c r="D202">
         <v>-25.80520799721837</v>
       </c>
-      <c r="E202" t="inlineStr"/>
-      <c r="F202" t="inlineStr"/>
-      <c r="G202" t="inlineStr"/>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" s="1">
         <v>201</v>
       </c>
-      <c r="B203" t="n">
+      <c r="B203">
         <v>-44.74389359796585</v>
       </c>
-      <c r="C203" t="n">
+      <c r="C203">
         <v>-4.890190320543581</v>
       </c>
-      <c r="D203" t="n">
+      <c r="D203">
         <v>-24.68564394407584</v>
       </c>
-      <c r="E203" t="inlineStr"/>
-      <c r="F203" t="inlineStr"/>
-      <c r="G203" t="inlineStr"/>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" s="1">
         <v>202</v>
       </c>
-      <c r="B204" t="n">
+      <c r="B204">
         <v>-27.03075672475811</v>
       </c>
-      <c r="C204" t="n">
+      <c r="C204">
         <v>1.590131819867542</v>
       </c>
-      <c r="D204" t="n">
+      <c r="D204">
         <v>-11.73643717756402</v>
       </c>
-      <c r="E204" t="inlineStr"/>
-      <c r="F204" t="inlineStr"/>
-      <c r="G204" t="inlineStr"/>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" s="1">
         <v>203</v>
       </c>
-      <c r="B205" t="n">
+      <c r="B205">
         <v>-27.18635678298037</v>
       </c>
-      <c r="C205" t="n">
+      <c r="C205">
         <v>1.533205793180977</v>
       </c>
-      <c r="D205" t="n">
+      <c r="D205">
         <v>-11.85018875873365</v>
       </c>
-      <c r="E205" t="inlineStr"/>
-      <c r="F205" t="inlineStr"/>
-      <c r="G205" t="inlineStr"/>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" s="1">
         <v>204</v>
       </c>
-      <c r="B206" t="n">
+      <c r="B206">
         <v>-27.37020228322468</v>
       </c>
-      <c r="C206" t="n">
+      <c r="C206">
         <v>1.465946217749695</v>
       </c>
-      <c r="D206" t="n">
+      <c r="D206">
         <v>-11.98458919908463</v>
       </c>
-      <c r="E206" t="inlineStr"/>
-      <c r="F206" t="inlineStr"/>
-      <c r="G206" t="inlineStr"/>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" s="1">
         <v>205</v>
       </c>
-      <c r="B207" t="n">
+      <c r="B207">
         <v>-27.53320200366576</v>
       </c>
-      <c r="C207" t="n">
+      <c r="C207">
         <v>1.406313036748712</v>
       </c>
-      <c r="D207" t="n">
+      <c r="D207">
         <v>-12.10375031086195</v>
       </c>
-      <c r="E207" t="inlineStr"/>
-      <c r="F207" t="inlineStr"/>
-      <c r="G207" t="inlineStr"/>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" s="1">
         <v>206</v>
       </c>
-      <c r="B208" t="n">
+      <c r="B208">
         <v>-27.65616297431534</v>
       </c>
-      <c r="C208" t="n">
+      <c r="C208">
         <v>1.361327966842086</v>
       </c>
-      <c r="D208" t="n">
+      <c r="D208">
         <v>-12.19364105379189</v>
       </c>
-      <c r="E208" t="inlineStr"/>
-      <c r="F208" t="inlineStr"/>
-      <c r="G208" t="inlineStr"/>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" s="1">
         <v>207</v>
       </c>
-      <c r="B209" t="n">
+      <c r="B209">
         <v>-27.71121038122184</v>
       </c>
-      <c r="C209" t="n">
+      <c r="C209">
         <v>1.341188963101423</v>
       </c>
-      <c r="D209" t="n">
+      <c r="D209">
         <v>-12.2338835167218</v>
       </c>
-      <c r="E209" t="inlineStr"/>
-      <c r="F209" t="inlineStr"/>
-      <c r="G209" t="inlineStr"/>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" s="1">
         <v>208</v>
       </c>
-      <c r="B210" t="n">
+      <c r="B210">
         <v>-27.6705893742001</v>
       </c>
-      <c r="C210" t="n">
+      <c r="C210">
         <v>1.356050092050691</v>
       </c>
-      <c r="D210" t="n">
+      <c r="D210">
         <v>-12.20418748813276</v>
       </c>
-      <c r="E210" t="inlineStr"/>
-      <c r="F210" t="inlineStr"/>
-      <c r="G210" t="inlineStr"/>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" s="1">
         <v>209</v>
       </c>
-      <c r="B211" t="n">
+      <c r="B211">
         <v>-27.51783633809745</v>
       </c>
-      <c r="C211" t="n">
+      <c r="C211">
         <v>1.411934540353479</v>
       </c>
-      <c r="D211" t="n">
+      <c r="D211">
         <v>-12.09251722538571</v>
       </c>
-      <c r="E211" t="inlineStr"/>
-      <c r="F211" t="inlineStr"/>
-      <c r="G211" t="inlineStr"/>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" s="1">
         <v>210</v>
       </c>
-      <c r="B212" t="n">
+      <c r="B212">
         <v>-27.23913198164274</v>
       </c>
-      <c r="C212" t="n">
+      <c r="C212">
         <v>1.513898073108333</v>
       </c>
-      <c r="D212" t="n">
+      <c r="D212">
         <v>-11.88877012151058</v>
       </c>
-      <c r="E212" t="inlineStr"/>
-      <c r="F212" t="inlineStr"/>
-      <c r="G212" t="inlineStr"/>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" s="1">
         <v>211</v>
       </c>
-      <c r="B213" t="n">
+      <c r="B213">
         <v>-26.83048621240334</v>
       </c>
-      <c r="C213" t="n">
+      <c r="C213">
         <v>1.663400459102589</v>
       </c>
-      <c r="D213" t="n">
+      <c r="D213">
         <v>-11.59002921536735</v>
       </c>
-      <c r="E213" t="inlineStr"/>
-      <c r="F213" t="inlineStr"/>
-      <c r="G213" t="inlineStr"/>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" s="1">
         <v>212</v>
       </c>
-      <c r="B214" t="n">
+      <c r="B214">
         <v>-26.30161795569628</v>
       </c>
-      <c r="C214" t="n">
+      <c r="C214">
         <v>1.85688604541245</v>
       </c>
-      <c r="D214" t="n">
+      <c r="D214">
         <v>-11.2033995372157</v>
       </c>
-      <c r="E214" t="inlineStr"/>
-      <c r="F214" t="inlineStr"/>
-      <c r="G214" t="inlineStr"/>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" s="1">
         <v>213</v>
       </c>
-      <c r="B215" t="n">
+      <c r="B215">
         <v>-25.66262459712292</v>
       </c>
-      <c r="C215" t="n">
+      <c r="C215">
         <v>2.090660720038374</v>
       </c>
-      <c r="D215" t="n">
+      <c r="D215">
         <v>-10.73626279109199</v>
       </c>
-      <c r="E215" t="inlineStr"/>
-      <c r="F215" t="inlineStr"/>
-      <c r="G215" t="inlineStr"/>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" s="1">
         <v>214</v>
       </c>
-      <c r="B216" t="n">
+      <c r="B216">
         <v>-24.94585328293307</v>
       </c>
-      <c r="C216" t="n">
+      <c r="C216">
         <v>2.352890332455686</v>
       </c>
-      <c r="D216" t="n">
+      <c r="D216">
         <v>-10.21226639123422</v>
       </c>
-      <c r="E216" t="inlineStr"/>
-      <c r="F216" t="inlineStr"/>
-      <c r="G216" t="inlineStr"/>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" s="1">
         <v>215</v>
       </c>
-      <c r="B217" t="n">
+      <c r="B217">
         <v>-24.17810456092425</v>
       </c>
-      <c r="C217" t="n">
+      <c r="C217">
         <v>2.633769946107375</v>
       </c>
-      <c r="D217" t="n">
+      <c r="D217">
         <v>-9.651002905428102</v>
       </c>
-      <c r="E217" t="inlineStr"/>
-      <c r="F217" t="inlineStr"/>
-      <c r="G217" t="inlineStr"/>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" s="1">
         <v>216</v>
       </c>
-      <c r="B218" t="n">
+      <c r="B218">
         <v>-23.39653563392873</v>
       </c>
-      <c r="C218" t="n">
+      <c r="C218">
         <v>2.919705659138946</v>
       </c>
-      <c r="D218" t="n">
+      <c r="D218">
         <v>-9.079636144679247</v>
       </c>
-      <c r="E218" t="inlineStr"/>
-      <c r="F218" t="inlineStr"/>
-      <c r="G218" t="inlineStr"/>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" s="1">
         <v>217</v>
       </c>
-      <c r="B219" t="n">
+      <c r="B219">
         <v>-22.63736369664914</v>
       </c>
-      <c r="C219" t="n">
+      <c r="C219">
         <v>3.197447470131953</v>
       </c>
-      <c r="D219" t="n">
+      <c r="D219">
         <v>-8.524642726091923</v>
       </c>
-      <c r="E219" t="inlineStr"/>
-      <c r="F219" t="inlineStr"/>
-      <c r="G219" t="inlineStr"/>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" s="1">
         <v>218</v>
       </c>
-      <c r="B220" t="n">
+      <c r="B220">
         <v>-21.93740980683648</v>
       </c>
-      <c r="C220" t="n">
+      <c r="C220">
         <v>3.453524455359835</v>
       </c>
-      <c r="D220" t="n">
+      <c r="D220">
         <v>-8.012940721467432</v>
       </c>
-      <c r="E220" t="inlineStr"/>
-      <c r="F220" t="inlineStr"/>
-      <c r="G220" t="inlineStr"/>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" s="1">
         <v>219</v>
       </c>
-      <c r="B221" t="n">
+      <c r="B221">
         <v>-21.33924237724655</v>
       </c>
-      <c r="C221" t="n">
+      <c r="C221">
         <v>3.672363030672127</v>
       </c>
-      <c r="D221" t="n">
+      <c r="D221">
         <v>-7.57564981234174</v>
       </c>
-      <c r="E221" t="inlineStr"/>
-      <c r="F221" t="inlineStr"/>
-      <c r="G221" t="inlineStr"/>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" s="1">
         <v>220</v>
       </c>
-      <c r="B222" t="n">
+      <c r="B222">
         <v>-20.87078847970769</v>
       </c>
-      <c r="C222" t="n">
+      <c r="C222">
         <v>3.843746122538521</v>
       </c>
-      <c r="D222" t="n">
+      <c r="D222">
         <v>-7.233186113041565</v>
       </c>
-      <c r="E222" t="inlineStr"/>
-      <c r="F222" t="inlineStr"/>
-      <c r="G222" t="inlineStr"/>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" s="1">
         <v>221</v>
       </c>
-      <c r="B223" t="n">
+      <c r="B223">
         <v>-20.56080606605328</v>
       </c>
-      <c r="C223" t="n">
+      <c r="C223">
         <v>3.957152681338457</v>
       </c>
-      <c r="D223" t="n">
+      <c r="D223">
         <v>-7.006573153568261</v>
       </c>
-      <c r="E223" t="inlineStr"/>
-      <c r="F223" t="inlineStr"/>
-      <c r="G223" t="inlineStr"/>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" s="1">
         <v>222</v>
       </c>
-      <c r="B224" t="n">
+      <c r="B224">
         <v>-20.41667402409903</v>
       </c>
-      <c r="C224" t="n">
+      <c r="C224">
         <v>4.009883153038903</v>
       </c>
-      <c r="D224" t="n">
+      <c r="D224">
         <v>-6.90120527738094</v>
       </c>
-      <c r="E224" t="inlineStr"/>
-      <c r="F224" t="inlineStr"/>
-      <c r="G224" t="inlineStr"/>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" s="1">
         <v>223</v>
       </c>
-      <c r="B225" t="n">
+      <c r="B225">
         <v>-20.43264247748893</v>
       </c>
-      <c r="C225" t="n">
+      <c r="C225">
         <v>4.00404112049597</v>
       </c>
-      <c r="D225" t="n">
+      <c r="D225">
         <v>-6.912879031508593</v>
       </c>
-      <c r="E225" t="inlineStr"/>
-      <c r="F225" t="inlineStr"/>
-      <c r="G225" t="inlineStr"/>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" s="1">
         <v>224</v>
       </c>
-      <c r="B226" t="n">
+      <c r="B226">
         <v>-20.58792628146971</v>
       </c>
-      <c r="C226" t="n">
+      <c r="C226">
         <v>3.947230794906156</v>
       </c>
-      <c r="D226" t="n">
+      <c r="D226">
         <v>-7.026399414692611</v>
       </c>
-      <c r="E226" t="inlineStr"/>
-      <c r="F226" t="inlineStr"/>
-      <c r="G226" t="inlineStr"/>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" s="1">
         <v>225</v>
       </c>
-      <c r="B227" t="n">
+      <c r="B227">
         <v>-20.84266614129857</v>
       </c>
-      <c r="C227" t="n">
+      <c r="C227">
         <v>3.854034634027888</v>
       </c>
-      <c r="D227" t="n">
+      <c r="D227">
         <v>-7.21262724888192</v>
       </c>
-      <c r="E227" t="inlineStr"/>
-      <c r="F227" t="inlineStr"/>
-      <c r="G227" t="inlineStr"/>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" s="1">
         <v>226</v>
       </c>
-      <c r="B228" t="n">
+      <c r="B228">
         <v>-21.1587204530524</v>
       </c>
-      <c r="C228" t="n">
+      <c r="C228">
         <v>3.73840668124395</v>
       </c>
-      <c r="D228" t="n">
+      <c r="D228">
         <v>-7.443679075650009</v>
       </c>
-      <c r="E228" t="inlineStr"/>
-      <c r="F228" t="inlineStr"/>
-      <c r="G228" t="inlineStr"/>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" s="1">
         <v>227</v>
       </c>
-      <c r="B229" t="n">
+      <c r="B229">
         <v>-21.4845348906063</v>
       </c>
-      <c r="C229" t="n">
+      <c r="C229">
         <v>3.619208002406902</v>
       </c>
-      <c r="D229" t="n">
+      <c r="D229">
         <v>-7.681866052332937</v>
       </c>
-      <c r="E229" t="inlineStr"/>
-      <c r="F229" t="inlineStr"/>
-      <c r="G229" t="inlineStr"/>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" s="1">
         <v>228</v>
       </c>
-      <c r="B230" t="n">
+      <c r="B230">
         <v>-21.77292376842254</v>
       </c>
-      <c r="C230" t="n">
+      <c r="C230">
         <v>3.513701403359069</v>
       </c>
-      <c r="D230" t="n">
+      <c r="D230">
         <v>-7.89269303542103</v>
       </c>
-      <c r="E230" t="inlineStr"/>
-      <c r="F230" t="inlineStr"/>
-      <c r="G230" t="inlineStr"/>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" s="1">
         <v>229</v>
       </c>
-      <c r="B231" t="n">
+      <c r="B231">
         <v>-21.97743193416775</v>
       </c>
-      <c r="C231" t="n">
+      <c r="C231">
         <v>3.438882425565354</v>
       </c>
-      <c r="D231" t="n">
+      <c r="D231">
         <v>-8.042198938448315</v>
       </c>
-      <c r="E231" t="inlineStr"/>
-      <c r="F231" t="inlineStr"/>
-      <c r="G231" t="inlineStr"/>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" s="1">
         <v>230</v>
       </c>
-      <c r="B232" t="n">
+      <c r="B232">
         <v>-22.06149765794014</v>
       </c>
-      <c r="C232" t="n">
+      <c r="C232">
         <v>3.408127118083036</v>
       </c>
-      <c r="D232" t="n">
+      <c r="D232">
         <v>-8.103655271501987</v>
       </c>
-      <c r="E232" t="inlineStr"/>
-      <c r="F232" t="inlineStr"/>
-      <c r="G232" t="inlineStr"/>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233" s="1">
         <v>231</v>
       </c>
-      <c r="B233" t="n">
+      <c r="B233">
         <v>-22.00673557472539</v>
       </c>
-      <c r="C233" t="n">
+      <c r="C233">
         <v>3.428161736617959</v>
       </c>
-      <c r="D233" t="n">
+      <c r="D233">
         <v>-8.063621394747759</v>
       </c>
-      <c r="E233" t="inlineStr"/>
-      <c r="F233" t="inlineStr"/>
-      <c r="G233" t="inlineStr"/>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234" s="1">
         <v>232</v>
       </c>
-      <c r="B234" t="n">
+      <c r="B234">
         <v>-21.8041744068425</v>
       </c>
-      <c r="C234" t="n">
+      <c r="C234">
         <v>3.502268408429689</v>
       </c>
-      <c r="D234" t="n">
+      <c r="D234">
         <v>-7.915538846492335</v>
       </c>
-      <c r="E234" t="inlineStr"/>
-      <c r="F234" t="inlineStr"/>
-      <c r="G234" t="inlineStr"/>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235" s="1">
         <v>233</v>
       </c>
-      <c r="B235" t="n">
+      <c r="B235">
         <v>-21.46268045356453</v>
       </c>
-      <c r="C235" t="n">
+      <c r="C235">
         <v>3.627203412437423</v>
       </c>
-      <c r="D235" t="n">
+      <c r="D235">
         <v>-7.665889343856886</v>
       </c>
-      <c r="E235" t="inlineStr"/>
-      <c r="F235" t="inlineStr"/>
-      <c r="G235" t="inlineStr"/>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236" s="1">
         <v>234</v>
       </c>
-      <c r="B236" t="n">
+      <c r="B236">
         <v>-20.99872463352697</v>
       </c>
-      <c r="C236" t="n">
+      <c r="C236">
         <v>3.796940890010332</v>
       </c>
-      <c r="D236" t="n">
+      <c r="D236">
         <v>-7.32671396869902</v>
       </c>
-      <c r="E236" t="inlineStr"/>
-      <c r="F236" t="inlineStr"/>
-      <c r="G236" t="inlineStr"/>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237" s="1">
         <v>235</v>
       </c>
-      <c r="B237" t="n">
+      <c r="B237">
         <v>-20.44069097424891</v>
       </c>
-      <c r="C237" t="n">
+      <c r="C237">
         <v>4.00109659112638</v>
       </c>
-      <c r="D237" t="n">
+      <c r="D237">
         <v>-6.918762893268967</v>
       </c>
-      <c r="E237" t="inlineStr"/>
-      <c r="F237" t="inlineStr"/>
-      <c r="G237" t="inlineStr"/>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238" s="1">
         <v>236</v>
       </c>
-      <c r="B238" t="n">
+      <c r="B238">
         <v>-19.82713284434313</v>
       </c>
-      <c r="C238" t="n">
+      <c r="C238">
         <v>4.225565828964862</v>
       </c>
-      <c r="D238" t="n">
+      <c r="D238">
         <v>-6.470220596989325</v>
       </c>
-      <c r="E238" t="inlineStr"/>
-      <c r="F238" t="inlineStr"/>
-      <c r="G238" t="inlineStr"/>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239" s="1">
         <v>237</v>
       </c>
-      <c r="B239" t="n">
+      <c r="B239">
         <v>-19.19479197899802</v>
       </c>
-      <c r="C239" t="n">
+      <c r="C239">
         <v>4.45690669982895</v>
       </c>
-      <c r="D239" t="n">
+      <c r="D239">
         <v>-6.007947162821138</v>
       </c>
-      <c r="E239" t="inlineStr"/>
-      <c r="F239" t="inlineStr"/>
-      <c r="G239" t="inlineStr"/>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240" s="1">
         <v>238</v>
       </c>
-      <c r="B240" t="n">
+      <c r="B240">
         <v>-18.58752280225561</v>
       </c>
-      <c r="C240" t="n">
+      <c r="C240">
         <v>4.679075134443459</v>
       </c>
-      <c r="D240" t="n">
+      <c r="D240">
         <v>-5.564002412162026</v>
       </c>
-      <c r="E240" t="inlineStr"/>
-      <c r="F240" t="inlineStr"/>
-      <c r="G240" t="inlineStr"/>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241" s="1">
         <v>239</v>
       </c>
-      <c r="B241" t="n">
+      <c r="B241">
         <v>-18.03871239493303</v>
       </c>
-      <c r="C241" t="n">
+      <c r="C241">
         <v>4.879856523923937</v>
       </c>
-      <c r="D241" t="n">
+      <c r="D241">
         <v>-5.162794004475475</v>
       </c>
-      <c r="E241" t="inlineStr"/>
-      <c r="F241" t="inlineStr"/>
-      <c r="G241" t="inlineStr"/>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242" s="1">
         <v>240</v>
       </c>
-      <c r="B242" t="n">
+      <c r="B242">
         <v>-17.58029289249667</v>
       </c>
-      <c r="C242" t="n">
+      <c r="C242">
         <v>5.047568548761726</v>
       </c>
-      <c r="D242" t="n">
+      <c r="D242">
         <v>-4.827665959943245</v>
       </c>
-      <c r="E242" t="inlineStr"/>
-      <c r="F242" t="inlineStr"/>
-      <c r="G242" t="inlineStr"/>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243" s="1">
         <v>241</v>
       </c>
-      <c r="B243" t="n">
+      <c r="B243">
         <v>-17.23455788438795</v>
       </c>
-      <c r="C243" t="n">
+      <c r="C243">
         <v>5.174055135739498</v>
       </c>
-      <c r="D243" t="n">
+      <c r="D243">
         <v>-4.574916029850783</v>
       </c>
-      <c r="E243" t="inlineStr"/>
-      <c r="F243" t="inlineStr"/>
-      <c r="G243" t="inlineStr"/>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
+    </row>
+    <row r="244" spans="1:4">
+      <c r="A244" s="1">
         <v>242</v>
       </c>
-      <c r="B244" t="n">
+      <c r="B244">
         <v>-17.01355236443878</v>
       </c>
-      <c r="C244" t="n">
+      <c r="C244">
         <v>5.254909643573508</v>
       </c>
-      <c r="D244" t="n">
+      <c r="D244">
         <v>-4.413349719216613</v>
       </c>
-      <c r="E244" t="inlineStr"/>
-      <c r="F244" t="inlineStr"/>
-      <c r="G244" t="inlineStr"/>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245" s="1">
         <v>243</v>
       </c>
-      <c r="B245" t="n">
+      <c r="B245">
         <v>-16.92393677619404</v>
       </c>
-      <c r="C245" t="n">
+      <c r="C245">
         <v>5.287695359891593</v>
       </c>
-      <c r="D245" t="n">
+      <c r="D245">
         <v>-4.347836152083336</v>
       </c>
-      <c r="E245" t="inlineStr"/>
-      <c r="F245" t="inlineStr"/>
-      <c r="G245" t="inlineStr"/>
-    </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
+    </row>
+    <row r="246" spans="1:4">
+      <c r="A246" s="1">
         <v>244</v>
       </c>
-      <c r="B246" t="n">
+      <c r="B246">
         <v>-16.95589649434412</v>
       </c>
-      <c r="C246" t="n">
+      <c r="C246">
         <v>5.276002949303238</v>
       </c>
-      <c r="D246" t="n">
+      <c r="D246">
         <v>-4.371200336614131</v>
       </c>
-      <c r="E246" t="inlineStr"/>
-      <c r="F246" t="inlineStr"/>
-      <c r="G246" t="inlineStr"/>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247" s="1">
         <v>245</v>
       </c>
-      <c r="B247" t="n">
+      <c r="B247">
         <v>-17.09796410801278</v>
       </c>
-      <c r="C247" t="n">
+      <c r="C247">
         <v>5.224027745312976</v>
       </c>
-      <c r="D247" t="n">
+      <c r="D247">
         <v>-4.475059010398956</v>
       </c>
-      <c r="E247" t="inlineStr"/>
-      <c r="F247" t="inlineStr"/>
-      <c r="G247" t="inlineStr"/>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="n">
+    </row>
+    <row r="248" spans="1:4">
+      <c r="A248" s="1">
         <v>246</v>
       </c>
-      <c r="B248" t="n">
+      <c r="B248">
         <v>-17.32666414614021</v>
       </c>
-      <c r="C248" t="n">
+      <c r="C248">
         <v>5.140358210594269</v>
       </c>
-      <c r="D248" t="n">
+      <c r="D248">
         <v>-4.64225040639052</v>
       </c>
-      <c r="E248" t="inlineStr"/>
-      <c r="F248" t="inlineStr"/>
-      <c r="G248" t="inlineStr"/>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="n">
+    </row>
+    <row r="249" spans="1:4">
+      <c r="A249" s="1">
         <v>247</v>
       </c>
-      <c r="B249" t="n">
+      <c r="B249">
         <v>-17.61996585282482</v>
       </c>
-      <c r="C249" t="n">
+      <c r="C249">
         <v>5.033054261143985</v>
       </c>
-      <c r="D249" t="n">
+      <c r="D249">
         <v>-4.856668918030577</v>
       </c>
-      <c r="E249" t="inlineStr"/>
-      <c r="F249" t="inlineStr"/>
-      <c r="G249" t="inlineStr"/>
-    </row>
-    <row r="250">
-      <c r="A250" s="1" t="n">
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250" s="1">
         <v>248</v>
       </c>
-      <c r="B250" t="n">
+      <c r="B250">
         <v>-17.95300979953806</v>
       </c>
-      <c r="C250" t="n">
+      <c r="C250">
         <v>4.911210678210905</v>
       </c>
-      <c r="D250" t="n">
+      <c r="D250">
         <v>-5.100141034753618</v>
       </c>
-      <c r="E250" t="inlineStr"/>
-      <c r="F250" t="inlineStr"/>
-      <c r="G250" t="inlineStr"/>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="n">
+    </row>
+    <row r="251" spans="1:4">
+      <c r="A251" s="1">
         <v>249</v>
       </c>
-      <c r="B251" t="n">
+      <c r="B251">
         <v>-18.30528196016228</v>
       </c>
-      <c r="C251" t="n">
+      <c r="C251">
         <v>4.782332484682318</v>
       </c>
-      <c r="D251" t="n">
+      <c r="D251">
         <v>-5.357669956855987</v>
       </c>
-      <c r="E251" t="inlineStr"/>
-      <c r="F251" t="inlineStr"/>
-      <c r="G251" t="inlineStr"/>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="n">
+    </row>
+    <row r="252" spans="1:4">
+      <c r="A252" s="1">
         <v>250</v>
       </c>
-      <c r="B252" t="n">
+      <c r="B252">
         <v>-18.66454438425524</v>
       </c>
-      <c r="C252" t="n">
+      <c r="C252">
         <v>4.650896914702115</v>
       </c>
-      <c r="D252" t="n">
+      <c r="D252">
         <v>-5.620309118192494</v>
       </c>
-      <c r="E252" t="inlineStr"/>
-      <c r="F252" t="inlineStr"/>
-      <c r="G252" t="inlineStr"/>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="n">
+    </row>
+    <row r="253" spans="1:4">
+      <c r="A253" s="1">
         <v>251</v>
       </c>
-      <c r="B253" t="n">
+      <c r="B253">
         <v>-19.0184519106182</v>
       </c>
-      <c r="C253" t="n">
+      <c r="C253">
         <v>4.521420425294021</v>
       </c>
-      <c r="D253" t="n">
+      <c r="D253">
         <v>-5.879033576085125</v>
       </c>
-      <c r="E253" t="inlineStr"/>
-      <c r="F253" t="inlineStr"/>
-      <c r="G253" t="inlineStr"/>
-    </row>
-    <row r="254">
-      <c r="A254" s="1" t="n">
+    </row>
+    <row r="254" spans="1:4">
+      <c r="A254" s="1">
         <v>252</v>
       </c>
-      <c r="B254" t="n">
+      <c r="B254">
         <v>-19.36709420023481</v>
       </c>
-      <c r="C254" t="n">
+      <c r="C254">
         <v>4.393870214133881</v>
       </c>
-      <c r="D254" t="n">
+      <c r="D254">
         <v>-6.133908877287377</v>
       </c>
-      <c r="E254" t="inlineStr"/>
-      <c r="F254" t="inlineStr"/>
-      <c r="G254" t="inlineStr"/>
-    </row>
-    <row r="255">
-      <c r="A255" s="1" t="n">
+    </row>
+    <row r="255" spans="1:4">
+      <c r="A255" s="1">
         <v>253</v>
       </c>
-      <c r="B255" t="n">
+      <c r="B255">
         <v>-19.70734134419093</v>
       </c>
-      <c r="C255" t="n">
+      <c r="C255">
         <v>4.269391353276345</v>
       </c>
-      <c r="D255" t="n">
+      <c r="D255">
         <v>-6.382646898697192</v>
       </c>
-      <c r="E255" t="inlineStr"/>
-      <c r="F255" t="inlineStr"/>
-      <c r="G255" t="inlineStr"/>
-    </row>
-    <row r="256">
-      <c r="A256" s="1" t="n">
+    </row>
+    <row r="256" spans="1:4">
+      <c r="A256" s="1">
         <v>254</v>
       </c>
-      <c r="B256" t="n">
+      <c r="B256">
         <v>-20.05143625447611</v>
       </c>
-      <c r="C256" t="n">
+      <c r="C256">
         <v>4.143504793403564</v>
       </c>
-      <c r="D256" t="n">
+      <c r="D256">
         <v>-6.63419783360397</v>
       </c>
-      <c r="E256" t="inlineStr"/>
-      <c r="F256" t="inlineStr"/>
-      <c r="G256" t="inlineStr"/>
-    </row>
-    <row r="257">
-      <c r="A257" s="1" t="n">
+    </row>
+    <row r="257" spans="1:4">
+      <c r="A257" s="1">
         <v>255</v>
       </c>
-      <c r="B257" t="n">
+      <c r="B257">
         <v>-20.41101343546981</v>
       </c>
-      <c r="C257" t="n">
+      <c r="C257">
         <v>4.011954070126276</v>
       </c>
-      <c r="D257" t="n">
+      <c r="D257">
         <v>-6.897067098293599</v>
       </c>
-      <c r="E257" t="inlineStr"/>
-      <c r="F257" t="inlineStr"/>
-      <c r="G257" t="inlineStr"/>
-    </row>
-    <row r="258">
-      <c r="A258" s="1" t="n">
+    </row>
+    <row r="258" spans="1:4">
+      <c r="A258" s="1">
         <v>256</v>
       </c>
-      <c r="B258" t="n">
+      <c r="B258">
         <v>-20.80093401998323</v>
       </c>
-      <c r="C258" t="n">
+      <c r="C258">
         <v>3.869302262323313</v>
       </c>
-      <c r="D258" t="n">
+      <c r="D258">
         <v>-7.182118939055959</v>
       </c>
-      <c r="E258" t="inlineStr"/>
-      <c r="F258" t="inlineStr"/>
-      <c r="G258" t="inlineStr"/>
-    </row>
-    <row r="259">
-      <c r="A259" s="1" t="n">
+    </row>
+    <row r="259" spans="1:4">
+      <c r="A259" s="1">
         <v>257</v>
       </c>
-      <c r="B259" t="n">
+      <c r="B259">
         <v>-21.23598387829285</v>
       </c>
-      <c r="C259" t="n">
+      <c r="C259">
         <v>3.710139983548693</v>
       </c>
-      <c r="D259" t="n">
+      <c r="D259">
         <v>-7.500162581428187</v>
       </c>
-      <c r="E259" t="inlineStr"/>
-      <c r="F259" t="inlineStr"/>
-      <c r="G259" t="inlineStr"/>
-    </row>
-    <row r="260">
-      <c r="A260" s="1" t="n">
+    </row>
+    <row r="260" spans="1:4">
+      <c r="A260" s="1">
         <v>258</v>
       </c>
-      <c r="B260" t="n">
+      <c r="B260">
         <v>-21.71447566780396</v>
       </c>
-      <c r="C260" t="n">
+      <c r="C260">
         <v>3.535084545329618</v>
       </c>
-      <c r="D260" t="n">
+      <c r="D260">
         <v>-7.849964491886503</v>
       </c>
-      <c r="E260" t="inlineStr"/>
-      <c r="F260" t="inlineStr"/>
-      <c r="G260" t="inlineStr"/>
-    </row>
-    <row r="261">
-      <c r="A261" s="1" t="n">
+    </row>
+    <row r="261" spans="1:4">
+      <c r="A261" s="1">
         <v>259</v>
       </c>
-      <c r="B261" t="n">
+      <c r="B261">
         <v>-22.24212518060076</v>
       </c>
-      <c r="C261" t="n">
+      <c r="C261">
         <v>3.342044834485053</v>
       </c>
-      <c r="D261" t="n">
+      <c r="D261">
         <v>-8.235703206060263</v>
       </c>
-      <c r="E261" t="inlineStr"/>
-      <c r="F261" t="inlineStr"/>
-      <c r="G261" t="inlineStr"/>
-    </row>
-    <row r="262">
-      <c r="A262" s="1" t="n">
+    </row>
+    <row r="262" spans="1:4">
+      <c r="A262" s="1">
         <v>260</v>
       </c>
-      <c r="B262" t="n">
+      <c r="B262">
         <v>-22.8077257143423</v>
       </c>
-      <c r="C262" t="n">
+      <c r="C262">
         <v>3.135120804728492</v>
       </c>
-      <c r="D262" t="n">
+      <c r="D262">
         <v>-8.64918605277991</v>
       </c>
-      <c r="E262" t="inlineStr"/>
-      <c r="F262" t="inlineStr"/>
-      <c r="G262" t="inlineStr"/>
-    </row>
-    <row r="263">
-      <c r="A263" s="1" t="n">
+    </row>
+    <row r="263" spans="1:4">
+      <c r="A263" s="1">
         <v>261</v>
       </c>
-      <c r="B263" t="n">
+      <c r="B263">
         <v>-23.40724193927589</v>
       </c>
-      <c r="C263" t="n">
+      <c r="C263">
         <v>2.915788774846805</v>
       </c>
-      <c r="D263" t="n">
+      <c r="D263">
         <v>-9.08746300011644</v>
       </c>
-      <c r="E263" t="inlineStr"/>
-      <c r="F263" t="inlineStr"/>
-      <c r="G263" t="inlineStr"/>
-    </row>
-    <row r="264">
-      <c r="A264" s="1" t="n">
+    </row>
+    <row r="264" spans="1:4">
+      <c r="A264" s="1">
         <v>262</v>
       </c>
-      <c r="B264" t="n">
+      <c r="B264">
         <v>-24.0361316495596</v>
       </c>
-      <c r="C264" t="n">
+      <c r="C264">
         <v>2.685710503414682</v>
       </c>
-      <c r="D264" t="n">
+      <c r="D264">
         <v>-9.547213463859155</v>
       </c>
-      <c r="E264" t="inlineStr"/>
-      <c r="F264" t="inlineStr"/>
-      <c r="G264" t="inlineStr"/>
-    </row>
-    <row r="265">
-      <c r="A265" s="1" t="n">
+    </row>
+    <row r="265" spans="1:4">
+      <c r="A265" s="1">
         <v>263</v>
       </c>
-      <c r="B265" t="n">
+      <c r="B265">
         <v>-24.68415714256638</v>
       </c>
-      <c r="C265" t="n">
+      <c r="C265">
         <v>2.448631437185901</v>
       </c>
-      <c r="D265" t="n">
+      <c r="D265">
         <v>-10.02095316106706</v>
       </c>
-      <c r="E265" t="inlineStr"/>
-      <c r="F265" t="inlineStr"/>
-      <c r="G265" t="inlineStr"/>
-    </row>
-    <row r="266">
-      <c r="A266" s="1" t="n">
+    </row>
+    <row r="266" spans="1:4">
+      <c r="A266" s="1">
         <v>264</v>
       </c>
-      <c r="B266" t="n">
+      <c r="B266">
         <v>-25.34852113158239</v>
       </c>
-      <c r="C266" t="n">
+      <c r="C266">
         <v>2.20557495892742</v>
       </c>
-      <c r="D266" t="n">
+      <c r="D266">
         <v>-10.50663713243666</v>
       </c>
-      <c r="E266" t="inlineStr"/>
-      <c r="F266" t="inlineStr"/>
-      <c r="G266" t="inlineStr"/>
-    </row>
-    <row r="267">
-      <c r="A267" s="1" t="n">
+    </row>
+    <row r="267" spans="1:4">
+      <c r="A267" s="1">
         <v>265</v>
       </c>
-      <c r="B267" t="n">
+      <c r="B267">
         <v>-26.01073873224975</v>
       </c>
-      <c r="C267" t="n">
+      <c r="C267">
         <v>1.963303733334081</v>
       </c>
-      <c r="D267" t="n">
+      <c r="D267">
         <v>-10.99075198441613</v>
       </c>
-      <c r="E267" t="inlineStr"/>
-      <c r="F267" t="inlineStr"/>
-      <c r="G267" t="inlineStr"/>
-    </row>
-    <row r="268">
-      <c r="A268" s="1" t="n">
+    </row>
+    <row r="268" spans="1:4">
+      <c r="A268" s="1">
         <v>266</v>
       </c>
-      <c r="B268" t="n">
+      <c r="B268">
         <v>-26.66281405525175</v>
       </c>
-      <c r="C268" t="n">
+      <c r="C268">
         <v>1.724743043428432</v>
       </c>
-      <c r="D268" t="n">
+      <c r="D268">
         <v>-11.46745231397011</v>
       </c>
-      <c r="E268" t="inlineStr"/>
-      <c r="F268" t="inlineStr"/>
-      <c r="G268" t="inlineStr"/>
-    </row>
-    <row r="269">
-      <c r="A269" s="1" t="n">
+    </row>
+    <row r="269" spans="1:4">
+      <c r="A269" s="1">
         <v>267</v>
       </c>
-      <c r="B269" t="n">
+      <c r="B269">
         <v>-27.28847528785143</v>
       </c>
-      <c r="C269" t="n">
+      <c r="C269">
         <v>1.495845905274134</v>
       </c>
-      <c r="D269" t="n">
+      <c r="D269">
         <v>-11.92484259581106</v>
       </c>
-      <c r="E269" t="inlineStr"/>
-      <c r="F269" t="inlineStr"/>
-      <c r="G269" t="inlineStr"/>
-    </row>
-    <row r="270">
-      <c r="A270" s="1" t="n">
+    </row>
+    <row r="270" spans="1:4">
+      <c r="A270" s="1">
         <v>268</v>
       </c>
-      <c r="B270" t="n">
+      <c r="B270">
         <v>-27.86978814373019</v>
       </c>
-      <c r="C270" t="n">
+      <c r="C270">
         <v>1.28317354817432</v>
       </c>
-      <c r="D270" t="n">
+      <c r="D270">
         <v>-12.349811951645</v>
       </c>
-      <c r="E270" t="inlineStr"/>
-      <c r="F270" t="inlineStr"/>
-      <c r="G270" t="inlineStr"/>
-    </row>
-    <row r="271">
-      <c r="A271" s="1" t="n">
+    </row>
+    <row r="271" spans="1:4">
+      <c r="A271" s="1">
         <v>269</v>
       </c>
-      <c r="B271" t="n">
+      <c r="B271">
         <v>-28.39401674128072</v>
       </c>
-      <c r="C271" t="n">
+      <c r="C271">
         <v>1.091385373574833</v>
       </c>
-      <c r="D271" t="n">
+      <c r="D271">
         <v>-12.73304980224097</v>
       </c>
-      <c r="E271" t="inlineStr"/>
-      <c r="F271" t="inlineStr"/>
-      <c r="G271" t="inlineStr"/>
-    </row>
-    <row r="272">
-      <c r="A272" s="1" t="n">
+    </row>
+    <row r="272" spans="1:4">
+      <c r="A272" s="1">
         <v>270</v>
       </c>
-      <c r="B272" t="n">
+      <c r="B272">
         <v>-28.8395719729936</v>
       </c>
-      <c r="C272" t="n">
+      <c r="C272">
         <v>0.928379721130952</v>
       </c>
-      <c r="D272" t="n">
+      <c r="D272">
         <v>-13.058773408548</v>
       </c>
-      <c r="E272" t="inlineStr"/>
-      <c r="F272" t="inlineStr"/>
-      <c r="G272" t="inlineStr"/>
-    </row>
-    <row r="273">
-      <c r="A273" s="1" t="n">
+    </row>
+    <row r="273" spans="1:4">
+      <c r="A273" s="1">
         <v>271</v>
       </c>
-      <c r="B273" t="n">
+      <c r="B273">
         <v>-29.20135924622091</v>
       </c>
-      <c r="C273" t="n">
+      <c r="C273">
         <v>0.7960204392264534</v>
       </c>
-      <c r="D273" t="n">
+      <c r="D273">
         <v>-13.32325836341779</v>
       </c>
-      <c r="E273" t="inlineStr"/>
-      <c r="F273" t="inlineStr"/>
-      <c r="G273" t="inlineStr"/>
-    </row>
-    <row r="274">
-      <c r="A274" s="1" t="n">
+    </row>
+    <row r="274" spans="1:4">
+      <c r="A274" s="1">
         <v>272</v>
       </c>
-      <c r="B274" t="n">
+      <c r="B274">
         <v>-29.46925303721985</v>
       </c>
-      <c r="C274" t="n">
+      <c r="C274">
         <v>0.6980119341538699</v>
       </c>
-      <c r="D274" t="n">
+      <c r="D274">
         <v>-13.51910239239705</v>
       </c>
-      <c r="E274" t="inlineStr"/>
-      <c r="F274" t="inlineStr"/>
-      <c r="G274" t="inlineStr"/>
-    </row>
-    <row r="275">
-      <c r="A275" s="1" t="n">
+    </row>
+    <row r="275" spans="1:4">
+      <c r="A275" s="1">
         <v>273</v>
       </c>
-      <c r="B275" t="n">
+      <c r="B275">
         <v>-29.6371704321041</v>
       </c>
-      <c r="C275" t="n">
+      <c r="C275">
         <v>0.6365796300048278</v>
       </c>
-      <c r="D275" t="n">
+      <c r="D275">
         <v>-13.64185857508872</v>
       </c>
-      <c r="E275" t="inlineStr"/>
-      <c r="F275" t="inlineStr"/>
-      <c r="G275" t="inlineStr"/>
-    </row>
-    <row r="276">
-      <c r="A276" s="1" t="n">
+    </row>
+    <row r="276" spans="1:4">
+      <c r="A276" s="1">
         <v>274</v>
       </c>
-      <c r="B276" t="n">
+      <c r="B276">
         <v>-29.70586656068291</v>
       </c>
-      <c r="C276" t="n">
+      <c r="C276">
         <v>0.6114472637742505</v>
       </c>
-      <c r="D276" t="n">
+      <c r="D276">
         <v>-13.6920789499096</v>
       </c>
-      <c r="E276" t="inlineStr"/>
-      <c r="F276" t="inlineStr"/>
-      <c r="G276" t="inlineStr"/>
-    </row>
-    <row r="277">
-      <c r="A277" s="1" t="n">
+    </row>
+    <row r="277" spans="1:4">
+      <c r="A277" s="1">
         <v>275</v>
       </c>
-      <c r="B277" t="n">
+      <c r="B277">
         <v>-29.67079783492057</v>
       </c>
-      <c r="C277" t="n">
+      <c r="C277">
         <v>0.6242770997101641</v>
       </c>
-      <c r="D277" t="n">
+      <c r="D277">
         <v>-13.66644192219479</v>
       </c>
-      <c r="E277" t="inlineStr"/>
-      <c r="F277" t="inlineStr"/>
-      <c r="G277" t="inlineStr"/>
-    </row>
-    <row r="278">
-      <c r="A278" s="1" t="n">
+    </row>
+    <row r="278" spans="1:4">
+      <c r="A278" s="1">
         <v>276</v>
       </c>
-      <c r="B278" t="n">
+      <c r="B278">
         <v>-29.53652880531974</v>
       </c>
-      <c r="C278" t="n">
+      <c r="C278">
         <v>0.6733992044803182</v>
       </c>
-      <c r="D278" t="n">
+      <c r="D278">
         <v>-13.56828441124201</v>
       </c>
-      <c r="E278" t="inlineStr"/>
-      <c r="F278" t="inlineStr"/>
-      <c r="G278" t="inlineStr"/>
-    </row>
-    <row r="279">
-      <c r="A279" s="1" t="n">
+    </row>
+    <row r="279" spans="1:4">
+      <c r="A279" s="1">
         <v>277</v>
       </c>
-      <c r="B279" t="n">
+      <c r="B279">
         <v>-29.30602544272335</v>
       </c>
-      <c r="C279" t="n">
+      <c r="C279">
         <v>0.7577284825051477</v>
       </c>
-      <c r="D279" t="n">
+      <c r="D279">
         <v>-13.39977469305925</v>
       </c>
-      <c r="E279" t="inlineStr"/>
-      <c r="F279" t="inlineStr"/>
-      <c r="G279" t="inlineStr"/>
-    </row>
-    <row r="280">
-      <c r="A280" s="1" t="n">
+    </row>
+    <row r="280" spans="1:4">
+      <c r="A280" s="1">
         <v>278</v>
       </c>
-      <c r="B280" t="n">
+      <c r="B280">
         <v>-28.98352281788566</v>
       </c>
-      <c r="C280" t="n">
+      <c r="C280">
         <v>0.8757155400792083</v>
       </c>
-      <c r="D280" t="n">
+      <c r="D280">
         <v>-13.1640088204383</v>
       </c>
-      <c r="E280" t="inlineStr"/>
-      <c r="F280" t="inlineStr"/>
-      <c r="G280" t="inlineStr"/>
-    </row>
-    <row r="281">
-      <c r="A281" s="1" t="n">
+    </row>
+    <row r="281" spans="1:4">
+      <c r="A281" s="1">
         <v>279</v>
       </c>
-      <c r="B281" t="n">
+      <c r="B281">
         <v>-28.58498944563375</v>
       </c>
-      <c r="C281" t="n">
+      <c r="C281">
         <v>1.021518322182877</v>
       </c>
-      <c r="D281" t="n">
+      <c r="D281">
         <v>-12.87266059242054</v>
       </c>
-      <c r="E281" t="inlineStr"/>
-      <c r="F281" t="inlineStr"/>
-      <c r="G281" t="inlineStr"/>
-    </row>
-    <row r="282">
-      <c r="A282" s="1" t="n">
+    </row>
+    <row r="282" spans="1:4">
+      <c r="A282" s="1">
         <v>280</v>
       </c>
-      <c r="B282" t="n">
+      <c r="B282">
         <v>-28.12224058332622</v>
       </c>
-      <c r="C282" t="n">
+      <c r="C282">
         <v>1.190814236245247</v>
       </c>
-      <c r="D282" t="n">
+      <c r="D282">
         <v>-12.53436756494148</v>
       </c>
-      <c r="E282" t="inlineStr"/>
-      <c r="F282" t="inlineStr"/>
-      <c r="G282" t="inlineStr"/>
-    </row>
-    <row r="283">
-      <c r="A283" s="1" t="n">
+    </row>
+    <row r="283" spans="1:4">
+      <c r="A283" s="1">
         <v>281</v>
       </c>
-      <c r="B283" t="n">
+      <c r="B283">
         <v>-27.61729009138068</v>
       </c>
-      <c r="C283" t="n">
+      <c r="C283">
         <v>1.375549547454613</v>
       </c>
-      <c r="D283" t="n">
+      <c r="D283">
         <v>-12.1652229930986</v>
       </c>
-      <c r="E283" t="inlineStr"/>
-      <c r="F283" t="inlineStr"/>
-      <c r="G283" t="inlineStr"/>
-    </row>
-    <row r="284">
-      <c r="A284" s="1" t="n">
+    </row>
+    <row r="284" spans="1:4">
+      <c r="A284" s="1">
         <v>282</v>
       </c>
-      <c r="B284" t="n">
+      <c r="B284">
         <v>-27.08481913309202</v>
       </c>
-      <c r="C284" t="n">
+      <c r="C284">
         <v>1.570353176242871</v>
       </c>
-      <c r="D284" t="n">
+      <c r="D284">
         <v>-11.77595955628342</v>
       </c>
-      <c r="E284" t="inlineStr"/>
-      <c r="F284" t="inlineStr"/>
-      <c r="G284" t="inlineStr"/>
-    </row>
-    <row r="285">
-      <c r="A285" s="1" t="n">
+    </row>
+    <row r="285" spans="1:4">
+      <c r="A285" s="1">
         <v>283</v>
       </c>
-      <c r="B285" t="n">
+      <c r="B285">
         <v>-26.54298932248155</v>
       </c>
-      <c r="C285" t="n">
+      <c r="C285">
         <v>1.76858072583883</v>
       </c>
-      <c r="D285" t="n">
+      <c r="D285">
         <v>-11.37985432093872</v>
       </c>
-      <c r="E285" t="inlineStr"/>
-      <c r="F285" t="inlineStr"/>
-      <c r="G285" t="inlineStr"/>
-    </row>
-    <row r="286">
-      <c r="A286" s="1" t="n">
+    </row>
+    <row r="286" spans="1:4">
+      <c r="A286" s="1">
         <v>284</v>
       </c>
-      <c r="B286" t="n">
+      <c r="B286">
         <v>-26.01455819120804</v>
       </c>
-      <c r="C286" t="n">
+      <c r="C286">
         <v>1.96190639052411</v>
       </c>
-      <c r="D286" t="n">
+      <c r="D286">
         <v>-10.99354420378083</v>
       </c>
-      <c r="E286" t="inlineStr"/>
-      <c r="F286" t="inlineStr"/>
-      <c r="G286" t="inlineStr"/>
-    </row>
-    <row r="287">
-      <c r="A287" s="1" t="n">
+    </row>
+    <row r="287" spans="1:4">
+      <c r="A287" s="1">
         <v>285</v>
       </c>
-      <c r="B287" t="n">
+      <c r="B287">
         <v>-25.51545450296496</v>
       </c>
-      <c r="C287" t="n">
+      <c r="C287">
         <v>2.144502658166272</v>
       </c>
-      <c r="D287" t="n">
+      <c r="D287">
         <v>-10.6286739437444</v>
       </c>
-      <c r="E287" t="inlineStr"/>
-      <c r="F287" t="inlineStr"/>
-      <c r="G287" t="inlineStr"/>
-    </row>
-    <row r="288">
-      <c r="A288" s="1" t="n">
+    </row>
+    <row r="288" spans="1:4">
+      <c r="A288" s="1">
         <v>286</v>
       </c>
-      <c r="B288" t="n">
+      <c r="B288">
         <v>-25.07303900936632</v>
       </c>
-      <c r="C288" t="n">
+      <c r="C288">
         <v>2.306359642558724</v>
       </c>
-      <c r="D288" t="n">
+      <c r="D288">
         <v>-10.30524564618619</v>
       </c>
-      <c r="E288" t="inlineStr"/>
-      <c r="F288" t="inlineStr"/>
-      <c r="G288" t="inlineStr"/>
-    </row>
-    <row r="289">
-      <c r="A289" s="1" t="n">
+    </row>
+    <row r="289" spans="1:4">
+      <c r="A289" s="1">
         <v>287</v>
       </c>
-      <c r="B289" t="n">
+      <c r="B289">
         <v>-24.69952747224232</v>
       </c>
-      <c r="C289" t="n">
+      <c r="C289">
         <v>2.443008227224988</v>
       </c>
-      <c r="D289" t="n">
+      <c r="D289">
         <v>-10.03218965624394</v>
       </c>
-      <c r="E289" t="inlineStr"/>
-      <c r="F289" t="inlineStr"/>
-      <c r="G289" t="inlineStr"/>
-    </row>
-    <row r="290">
-      <c r="A290" s="1" t="n">
+    </row>
+    <row r="290" spans="1:4">
+      <c r="A290" s="1">
         <v>288</v>
       </c>
-      <c r="B290" t="n">
+      <c r="B290">
         <v>-24.40629325953445</v>
       </c>
-      <c r="C290" t="n">
+      <c r="C290">
         <v>2.550287484114325</v>
       </c>
-      <c r="D290" t="n">
+      <c r="D290">
         <v>-9.817820486144374</v>
       </c>
-      <c r="E290" t="inlineStr"/>
-      <c r="F290" t="inlineStr"/>
-      <c r="G290" t="inlineStr"/>
-    </row>
-    <row r="291">
-      <c r="A291" s="1" t="n">
+    </row>
+    <row r="291" spans="1:4">
+      <c r="A291" s="1">
         <v>289</v>
       </c>
-      <c r="B291" t="n">
+      <c r="B291">
         <v>-24.19889267471003</v>
       </c>
-      <c r="C291" t="n">
+      <c r="C291">
         <v>2.626164648695196</v>
       </c>
-      <c r="D291" t="n">
+      <c r="D291">
         <v>-9.666200077200937</v>
       </c>
-      <c r="E291" t="inlineStr"/>
-      <c r="F291" t="inlineStr"/>
-      <c r="G291" t="inlineStr"/>
-    </row>
-    <row r="292">
-      <c r="A292" s="1" t="n">
+    </row>
+    <row r="292" spans="1:4">
+      <c r="A292" s="1">
         <v>290</v>
       </c>
-      <c r="B292" t="n">
+      <c r="B292">
         <v>-24.07402789212775</v>
       </c>
-      <c r="C292" t="n">
+      <c r="C292">
         <v>2.671846225082127</v>
       </c>
-      <c r="D292" t="n">
+      <c r="D292">
         <v>-9.574917550616997</v>
       </c>
-      <c r="E292" t="inlineStr"/>
-      <c r="F292" t="inlineStr"/>
-      <c r="G292" t="inlineStr"/>
-    </row>
-    <row r="293">
-      <c r="A293" s="1" t="n">
+    </row>
+    <row r="293" spans="1:4">
+      <c r="A293" s="1">
         <v>291</v>
       </c>
-      <c r="B293" t="n">
+      <c r="B293">
         <v>-24.03203133269017</v>
       </c>
-      <c r="C293" t="n">
+      <c r="C293">
         <v>2.687210597631864</v>
       </c>
-      <c r="D293" t="n">
+      <c r="D293">
         <v>-9.544215923032223</v>
       </c>
-      <c r="E293" t="inlineStr"/>
-      <c r="F293" t="inlineStr"/>
-      <c r="G293" t="inlineStr"/>
-    </row>
-    <row r="294">
-      <c r="A294" s="1" t="n">
+    </row>
+    <row r="294" spans="1:4">
+      <c r="A294" s="1">
         <v>292</v>
       </c>
-      <c r="B294" t="n">
+      <c r="B294">
         <v>-24.05563918768325</v>
       </c>
-      <c r="C294" t="n">
+      <c r="C294">
         <v>2.678573702513038</v>
       </c>
-      <c r="D294" t="n">
+      <c r="D294">
         <v>-9.561474469488877</v>
       </c>
-      <c r="E294" t="inlineStr"/>
-      <c r="F294" t="inlineStr"/>
-      <c r="G294" t="inlineStr"/>
-    </row>
-    <row r="295">
-      <c r="A295" s="1" t="n">
+    </row>
+    <row r="295" spans="1:4">
+      <c r="A295" s="1">
         <v>293</v>
       </c>
-      <c r="B295" t="n">
+      <c r="B295">
         <v>-24.13328152850102</v>
       </c>
-      <c r="C295" t="n">
+      <c r="C295">
         <v>2.650168379173853</v>
       </c>
-      <c r="D295" t="n">
+      <c r="D295">
         <v>-9.618234981886086</v>
       </c>
-      <c r="E295" t="inlineStr"/>
-      <c r="F295" t="inlineStr"/>
-      <c r="G295" t="inlineStr"/>
-    </row>
-    <row r="296">
-      <c r="A296" s="1" t="n">
+    </row>
+    <row r="296" spans="1:4">
+      <c r="A296" s="1">
         <v>294</v>
       </c>
-      <c r="B296" t="n">
+      <c r="B296">
         <v>-24.24486411936761</v>
       </c>
-      <c r="C296" t="n">
+      <c r="C296">
         <v>2.609346070891976</v>
       </c>
-      <c r="D296" t="n">
+      <c r="D296">
         <v>-9.699807548677462</v>
       </c>
-      <c r="E296" t="inlineStr"/>
-      <c r="F296" t="inlineStr"/>
-      <c r="G296" t="inlineStr"/>
-    </row>
-    <row r="297">
-      <c r="A297" s="1" t="n">
+    </row>
+    <row r="297" spans="1:4">
+      <c r="A297" s="1">
         <v>295</v>
       </c>
-      <c r="B297" t="n">
+      <c r="B297">
         <v>-24.37794237382861</v>
       </c>
-      <c r="C297" t="n">
+      <c r="C297">
         <v>2.560659609258218</v>
       </c>
-      <c r="D297" t="n">
+      <c r="D297">
         <v>-9.797094542250498</v>
       </c>
-      <c r="E297" t="inlineStr"/>
-      <c r="F297" t="inlineStr"/>
-      <c r="G297" t="inlineStr"/>
-    </row>
-    <row r="298">
-      <c r="A298" s="1" t="n">
+    </row>
+    <row r="298" spans="1:4">
+      <c r="A298" s="1">
         <v>296</v>
       </c>
-      <c r="B298" t="n">
+      <c r="B298">
         <v>-24.51772968269974</v>
       </c>
-      <c r="C298" t="n">
+      <c r="C298">
         <v>2.509518651046787</v>
       </c>
-      <c r="D298" t="n">
+      <c r="D298">
         <v>-9.899286196888726</v>
       </c>
-      <c r="E298" t="inlineStr"/>
-      <c r="F298" t="inlineStr"/>
-      <c r="G298" t="inlineStr"/>
-    </row>
-    <row r="299">
-      <c r="A299" s="1" t="n">
+    </row>
+    <row r="299" spans="1:4">
+      <c r="A299" s="1">
         <v>297</v>
       </c>
-      <c r="B299" t="n">
+      <c r="B299">
         <v>-24.64574668085429</v>
       </c>
-      <c r="C299" t="n">
+      <c r="C299">
         <v>2.462683841750829</v>
       </c>
-      <c r="D299" t="n">
+      <c r="D299">
         <v>-9.992873153879884</v>
       </c>
-      <c r="E299" t="inlineStr"/>
-      <c r="F299" t="inlineStr"/>
-      <c r="G299" t="inlineStr"/>
-    </row>
-    <row r="300">
-      <c r="A300" s="1" t="n">
+    </row>
+    <row r="300" spans="1:4">
+      <c r="A300" s="1">
         <v>298</v>
       </c>
-      <c r="B300" t="n">
+      <c r="B300">
         <v>-24.74365688780064</v>
       </c>
-      <c r="C300" t="n">
+      <c r="C300">
         <v>2.426863552753549</v>
       </c>
-      <c r="D300" t="n">
+      <c r="D300">
         <v>-10.06445051046984</v>
       </c>
-      <c r="E300" t="inlineStr"/>
-      <c r="F300" t="inlineStr"/>
-      <c r="G300" t="inlineStr"/>
-    </row>
-    <row r="301">
-      <c r="A301" s="1" t="n">
+    </row>
+    <row r="301" spans="1:4">
+      <c r="A301" s="1">
         <v>299</v>
       </c>
-      <c r="B301" t="n">
+      <c r="B301">
         <v>-24.79678405380636</v>
       </c>
-      <c r="C301" t="n">
+      <c r="C301">
         <v>2.407427066004277</v>
       </c>
-      <c r="D301" t="n">
+      <c r="D301">
         <v>-10.1032891793319</v>
       </c>
-      <c r="E301" t="inlineStr"/>
-      <c r="F301" t="inlineStr"/>
-      <c r="G301" t="inlineStr"/>
-    </row>
-    <row r="302">
-      <c r="A302" s="1" t="n">
+    </row>
+    <row r="302" spans="1:4">
+      <c r="A302" s="1">
         <v>300</v>
       </c>
-      <c r="B302" t="n">
+      <c r="B302">
         <v>-24.78775237140252</v>
       </c>
-      <c r="C302" t="n">
+      <c r="C302">
         <v>2.410731292232849</v>
       </c>
-      <c r="D302" t="n">
+      <c r="D302">
         <v>-10.0966865587044</v>
       </c>
-      <c r="E302" t="inlineStr"/>
-      <c r="F302" t="inlineStr"/>
-      <c r="G302" t="inlineStr"/>
-    </row>
-    <row r="303">
-      <c r="A303" s="1" t="n">
+    </row>
+    <row r="303" spans="1:4">
+      <c r="A303" s="1">
         <v>301</v>
       </c>
-      <c r="B303" t="n">
+      <c r="B303">
         <v>-24.72582365362767</v>
       </c>
-      <c r="C303" t="n">
+      <c r="C303">
         <v>2.43338781229456</v>
       </c>
-      <c r="D303" t="n">
+      <c r="D303">
         <v>-10.05141350644992</v>
       </c>
-      <c r="E303" t="inlineStr"/>
-      <c r="F303" t="inlineStr"/>
-      <c r="G303" t="inlineStr"/>
-    </row>
-    <row r="304">
-      <c r="A304" s="1" t="n">
+    </row>
+    <row r="304" spans="1:4">
+      <c r="A304" s="1">
         <v>302</v>
       </c>
-      <c r="B304" t="n">
+      <c r="B304">
         <v>-24.58663517142741</v>
       </c>
-      <c r="C304" t="n">
+      <c r="C304">
         <v>2.484309690748333</v>
       </c>
-      <c r="D304" t="n">
+      <c r="D304">
         <v>-9.949659624659827</v>
       </c>
-      <c r="E304" t="inlineStr"/>
-      <c r="F304" t="inlineStr"/>
-      <c r="G304" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>